--- a/Data/npcc.xlsx
+++ b/Data/npcc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml2589/Desktop/Thesis chap2/NPCC140buscase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\Baseline-powergrid-model-for-NY\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4D740C-6CEC-DB49-811D-26C74D81F454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071320B-FA33-4A57-BC15-9F7B433FF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49120" yWindow="780" windowWidth="27680" windowHeight="20040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="11" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="TGOV1" sheetId="9" r:id="rId10"/>
     <sheet name="IEEEX1" sheetId="10" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bus!$A$1:$N$141</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="644">
   <si>
     <t>idx</t>
   </si>
@@ -1933,6 +1935,36 @@
   </si>
   <si>
     <t>Line</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -2348,9 +2380,9 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2373,7 +2405,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2396,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2433,9 +2465,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2479,7 +2511,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2520,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2561,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2602,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2643,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2684,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2725,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2766,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2807,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2848,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2889,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2930,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2971,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3012,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3053,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3094,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3135,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3176,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3217,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3258,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3299,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3340,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3381,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3422,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3463,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3504,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3545,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3586,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3627,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3682,9 +3714,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3778,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3808,7 +3840,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3870,7 +3902,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3932,7 +3964,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3994,7 +4026,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4056,7 +4088,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4118,7 +4150,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4180,7 +4212,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4242,7 +4274,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4304,7 +4336,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4366,7 +4398,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4428,7 +4460,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4490,7 +4522,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4552,7 +4584,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4614,7 +4646,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4676,7 +4708,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4738,7 +4770,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4800,7 +4832,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4862,7 +4894,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4924,7 +4956,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4986,7 +5018,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5048,7 +5080,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5110,7 +5142,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5172,7 +5204,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5243,17 +5275,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5297,7 +5329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5326,22 +5358,22 @@
         <v>8.4533276991093351E-2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-72.057000000000002</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>41.005000000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5370,22 +5402,22 @@
         <v>7.0801026436401973E-2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-72.296999999999997</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>41.298000000000002</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5414,22 +5446,22 @@
         <v>6.9933597798160788E-2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-72.010000000000005</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>41.478000000000002</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5458,22 +5490,22 @@
         <v>7.1567225978027491E-2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-71.798000000000002</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>41.274999999999999</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5502,22 +5534,22 @@
         <v>4.1062361311670591E-2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-72.078000000000003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>41.76</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5546,22 +5578,22 @@
         <v>3.2468360074850523E-2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-71.616</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>41.969000000000001</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5590,22 +5622,22 @@
         <v>5.6991981394622838E-2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-71.248999999999995</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>42.206000000000003</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5634,22 +5666,22 @@
         <v>3.4862951808586742E-2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-71.671999999999997</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>42.189</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5678,22 +5710,22 @@
         <v>1.8722146886143171E-2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-72.039000000000001</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>42.088000000000001</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5722,22 +5754,22 @@
         <v>0.13993351810789739</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-71.088999999999999</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>41.648000000000003</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5766,22 +5798,22 @@
         <v>0.1170679595775196</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-71.454999999999998</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>41.506999999999998</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5810,22 +5842,22 @@
         <v>0.10372666277527499</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-71.129000000000005</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>41.975000000000001</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5854,22 +5886,22 @@
         <v>0.18629120837011881</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-70.489999999999995</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>41.71</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5898,22 +5930,22 @@
         <v>0.181280368087643</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-70.162999999999997</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>41.720999999999997</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5942,22 +5974,22 @@
         <v>6.0030599622344957E-2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-70.722999999999999</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>42.228999999999999</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5986,22 +6018,22 @@
         <v>7.8038906844422468E-2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-72.478999999999999</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6030,22 +6062,22 @@
         <v>5.7175240966082237E-2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-71.441999999999993</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>42.826000000000001</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6074,22 +6106,22 @@
         <v>2.6293385181294569E-2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-71.298000000000002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>42.527999999999999</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6118,22 +6150,22 @@
         <v>0.11290360398226119</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-70.588999999999999</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>43.113999999999997</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6162,22 +6194,22 @@
         <v>0.15965748398468529</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-69.832999999999998</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>43.863999999999997</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6206,22 +6238,22 @@
         <v>0.2069646333599916</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-72.403999999999996</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>41.005000000000003</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6250,22 +6282,22 @@
         <v>0.22089236079090641</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-70.881</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>41.411000000000001</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6294,22 +6326,22 @@
         <v>0.2051215656698856</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-71.343000000000004</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>41.348999999999997</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6338,22 +6370,22 @@
         <v>0.27535710542864139</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-70.537999999999997</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>41.466999999999999</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6382,22 +6414,22 @@
         <v>0.31946855694354609</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-70.186999999999998</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>41.399000000000001</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6426,22 +6458,22 @@
         <v>0.27425056668287701</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-69.506</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>43.893000000000001</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6470,22 +6502,22 @@
         <v>0.19319049490325241</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-72.91</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>43.000999999999998</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6514,22 +6546,22 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-72.198999999999998</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>42.465000000000003</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6558,22 +6590,22 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-72.725999999999999</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>42.481999999999999</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6602,22 +6634,22 @@
         <v>1.258207857762712E-2</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-72.581999999999994</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>42.177999999999997</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6646,22 +6678,22 @@
         <v>6.9219758134095111E-3</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-72.581000000000003</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>41.838999999999999</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6690,22 +6722,22 @@
         <v>3.2201324699295382E-2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-72.772000000000006</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>41.619</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6734,22 +6766,22 @@
         <v>4.4395940182979758E-2</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>-72.555999999999997</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>41.371000000000002</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6778,22 +6810,22 @@
         <v>8.7022116504437263E-3</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-72.986999999999995</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>41.304000000000002</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6822,22 +6854,22 @@
         <v>1.296779634231787E-3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-73.186999999999998</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>41.563000000000002</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6866,22 +6898,22 @@
         <v>0.17388715337619501</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-72.643000000000001</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6910,22 +6942,22 @@
         <v>8.0393356005362807E-2</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-73.923000000000002</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>42.494</v>
       </c>
       <c r="L38">
         <v>2</v>
       </c>
-      <c r="M38">
-        <v>1</v>
+      <c r="M38" t="s">
+        <v>634</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6954,22 +6986,22 @@
         <v>0.1217402059851085</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-74.88</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
-      <c r="M39">
-        <v>1</v>
+      <c r="M39" t="s">
+        <v>635</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6998,22 +7030,22 @@
         <v>5.7140334381042351E-2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-74.001000000000005</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>42.042000000000002</v>
       </c>
       <c r="L40">
         <v>2</v>
       </c>
-      <c r="M40">
-        <v>1</v>
+      <c r="M40" t="s">
+        <v>636</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7042,22 +7074,22 @@
         <v>1.0056587149991331E-2</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-74.066000000000003</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>42.646000000000001</v>
       </c>
       <c r="L41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>1</v>
+      <c r="M41" t="s">
+        <v>634</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7086,22 +7118,22 @@
         <v>-5.8833303755476851E-2</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-73.78</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>43.085999999999999</v>
       </c>
       <c r="L42">
         <v>2</v>
       </c>
-      <c r="M42">
-        <v>1</v>
+      <c r="M42" t="s">
+        <v>634</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7130,22 +7162,22 @@
         <v>-4.4793875252434473E-2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-73.628</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>42.701999999999998</v>
       </c>
       <c r="L43">
         <v>2</v>
       </c>
-      <c r="M43">
-        <v>1</v>
+      <c r="M43" t="s">
+        <v>634</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7174,22 +7206,22 @@
         <v>0.14561281949388691</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-75.239999999999995</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>42.893999999999998</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>1</v>
+      <c r="M44" t="s">
+        <v>635</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7218,22 +7250,22 @@
         <v>0.1146611505390195</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-75.135999999999996</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>43.012999999999998</v>
       </c>
       <c r="L45">
         <v>2</v>
       </c>
-      <c r="M45">
-        <v>1</v>
+      <c r="M45" t="s">
+        <v>635</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7262,22 +7294,22 @@
         <v>6.889163623472018E-2</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-75.239999999999995</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>43.131</v>
       </c>
       <c r="L46">
         <v>2</v>
       </c>
-      <c r="M46">
-        <v>1</v>
+      <c r="M46" t="s">
+        <v>635</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7306,22 +7338,22 @@
         <v>0.1079486142358493</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-75.051000000000002</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>44.427999999999997</v>
       </c>
       <c r="L47">
         <v>2</v>
       </c>
-      <c r="M47">
-        <v>1</v>
+      <c r="M47" t="s">
+        <v>635</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7350,22 +7382,22 @@
         <v>0.20384223932817369</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-75.210999999999999</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>44.654000000000003</v>
       </c>
       <c r="L48">
         <v>2</v>
       </c>
-      <c r="M48">
-        <v>1</v>
+      <c r="M48" t="s">
+        <v>635</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7394,22 +7426,22 @@
         <v>0.26202104461415271</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-74.820999999999998</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>44.845999999999997</v>
       </c>
       <c r="L49">
         <v>2</v>
       </c>
-      <c r="M49">
-        <v>1</v>
+      <c r="M49" t="s">
+        <v>486</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7438,22 +7470,22 @@
         <v>-1.948136511076071E-2</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>-74.134</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>44.698999999999998</v>
       </c>
       <c r="L50">
         <v>2</v>
       </c>
-      <c r="M50">
-        <v>1</v>
+      <c r="M50" t="s">
+        <v>486</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7482,22 +7514,22 @@
         <v>0.23063478867553869</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>-76.332999999999998</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>43.305999999999997</v>
       </c>
       <c r="L51">
         <v>2</v>
       </c>
-      <c r="M51">
-        <v>1</v>
+      <c r="M51" t="s">
+        <v>637</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7526,22 +7558,22 @@
         <v>0.14884691459783239</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-76.260999999999996</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>42.939</v>
       </c>
       <c r="L52">
         <v>2</v>
       </c>
-      <c r="M52">
-        <v>1</v>
+      <c r="M52" t="s">
+        <v>637</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7570,22 +7602,22 @@
         <v>0.33882076768965919</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-77.481999999999999</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="L53">
         <v>2</v>
       </c>
-      <c r="M53">
-        <v>1</v>
+      <c r="M53" t="s">
+        <v>638</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7614,22 +7646,22 @@
         <v>0.314251767809335</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>-77.777000000000001</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>42.889000000000003</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
-      <c r="M54">
-        <v>1</v>
+      <c r="M54" t="s">
+        <v>638</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7658,22 +7690,22 @@
         <v>0.47005381947636482</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-78.352000000000004</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>43.125</v>
       </c>
       <c r="L55">
         <v>2</v>
       </c>
-      <c r="M55">
-        <v>1</v>
+      <c r="M55" t="s">
+        <v>639</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7702,22 +7734,22 @@
         <v>0.45744207030145378</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>-78.590999999999994</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>42.996000000000002</v>
       </c>
       <c r="L56">
         <v>2</v>
       </c>
-      <c r="M56">
-        <v>1</v>
+      <c r="M56" t="s">
+        <v>639</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7746,22 +7778,22 @@
         <v>0.46948484214021469</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>-78.742999999999995</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="L57">
         <v>2</v>
       </c>
-      <c r="M57">
-        <v>1</v>
+      <c r="M57" t="s">
+        <v>639</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7790,22 +7822,22 @@
         <v>0.44895627947825728</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>-79.125</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L58">
         <v>2</v>
       </c>
-      <c r="M58">
-        <v>1</v>
+      <c r="M58" t="s">
+        <v>639</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7834,22 +7866,22 @@
         <v>0.42914679246812182</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>-79.132999999999996</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>42.713999999999999</v>
       </c>
       <c r="L59">
         <v>2</v>
       </c>
-      <c r="M59">
-        <v>1</v>
+      <c r="M59" t="s">
+        <v>639</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7878,22 +7910,22 @@
         <v>0.38721351185970598</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>-78.796999999999997</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>42.561</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
-      <c r="M60">
-        <v>1</v>
+      <c r="M60" t="s">
+        <v>639</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7922,22 +7954,22 @@
         <v>0.52740533869689854</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>-79.314999999999998</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>42.33</v>
       </c>
       <c r="L61">
         <v>2</v>
       </c>
-      <c r="M61">
-        <v>1</v>
+      <c r="M61" t="s">
+        <v>639</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7966,22 +7998,22 @@
         <v>0.46647414918052449</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>-78.828000000000003</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>42.234000000000002</v>
       </c>
       <c r="L62">
         <v>2</v>
       </c>
-      <c r="M62">
-        <v>1</v>
+      <c r="M62" t="s">
+        <v>639</v>
       </c>
       <c r="N62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8010,22 +8042,22 @@
         <v>0.41823848464315722</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>-78.254999999999995</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>42.707999999999998</v>
       </c>
       <c r="L63">
         <v>2</v>
       </c>
-      <c r="M63">
-        <v>1</v>
+      <c r="M63" t="s">
+        <v>638</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8054,22 +8086,22 @@
         <v>0.30799301711168342</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>-77.823999999999998</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>42.42</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
-      <c r="M64">
-        <v>1</v>
+      <c r="M64" t="s">
+        <v>637</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8098,22 +8130,22 @@
         <v>0.25390351826312713</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>-77.591999999999999</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>42.408999999999999</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
-      <c r="M65">
-        <v>1</v>
+      <c r="M65" t="s">
+        <v>637</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8142,22 +8174,22 @@
         <v>0.27499058628572259</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>-76.977999999999994</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="L66">
         <v>2</v>
       </c>
-      <c r="M66">
-        <v>1</v>
+      <c r="M66" t="s">
+        <v>637</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8186,22 +8218,22 @@
         <v>0.36431304674428838</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>-76.203000000000003</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>41.862000000000002</v>
       </c>
       <c r="L67">
         <v>2</v>
       </c>
-      <c r="M67">
-        <v>1</v>
+      <c r="M67" t="s">
+        <v>637</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8230,22 +8262,22 @@
         <v>0.29114360851293009</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>-77.040999999999997</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="L68">
         <v>2</v>
       </c>
-      <c r="M68">
-        <v>1</v>
+      <c r="M68" t="s">
+        <v>637</v>
       </c>
       <c r="N68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8274,22 +8306,22 @@
         <v>0.2224107972401414</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>-76.713999999999999</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>42.15</v>
       </c>
       <c r="L69">
         <v>2</v>
       </c>
-      <c r="M69">
-        <v>1</v>
+      <c r="M69" t="s">
+        <v>637</v>
       </c>
       <c r="N69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8318,22 +8350,22 @@
         <v>0.25020342024889908</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>-75.397000000000006</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>42.009</v>
       </c>
       <c r="L70">
         <v>2</v>
       </c>
-      <c r="M70">
-        <v>1</v>
+      <c r="M70" t="s">
+        <v>635</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8362,22 +8394,22 @@
         <v>0.2367748569840547</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>-75.988</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>42.014000000000003</v>
       </c>
       <c r="L71">
         <v>2</v>
       </c>
-      <c r="M71">
-        <v>1</v>
+      <c r="M71" t="s">
+        <v>637</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8406,22 +8438,22 @@
         <v>0.1939793837251538</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>-75.789000000000001</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>42.33</v>
       </c>
       <c r="L72">
         <v>2</v>
       </c>
-      <c r="M72">
-        <v>1</v>
+      <c r="M72" t="s">
+        <v>637</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8450,22 +8482,22 @@
         <v>0.17659764970454231</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>-76.093000000000004</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>42.634999999999998</v>
       </c>
       <c r="L73">
         <v>2</v>
       </c>
-      <c r="M73">
-        <v>1</v>
+      <c r="M73" t="s">
+        <v>637</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8494,22 +8526,22 @@
         <v>2.8581511830659139E-2</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>-73.641000000000005</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="L74">
         <v>3</v>
       </c>
-      <c r="M74">
-        <v>1</v>
+      <c r="M74" t="s">
+        <v>636</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8538,22 +8570,22 @@
         <v>5.1993358416911077E-3</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>-73.769000000000005</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>41.304000000000002</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
-      <c r="M75">
-        <v>1</v>
+      <c r="M75" t="s">
+        <v>640</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8582,22 +8614,22 @@
         <v>2.2045253781940371E-2</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>-74.861000000000004</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>41.078000000000003</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
-      <c r="M76">
-        <v>1</v>
+      <c r="M76" t="s">
+        <v>636</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8626,22 +8658,22 @@
         <v>1.391725545540278E-2</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>-74.311000000000007</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
-      <c r="M77">
-        <v>1</v>
+      <c r="M77" t="s">
+        <v>636</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8670,22 +8702,22 @@
         <v>9.5260070573850494E-3</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>-74.12</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>41.36</v>
       </c>
       <c r="L78">
         <v>3</v>
       </c>
-      <c r="M78">
-        <v>1</v>
+      <c r="M78" t="s">
+        <v>636</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8714,22 +8746,22 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>-73.424000000000007</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>40.773000000000003</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
-      <c r="M79">
-        <v>1</v>
+      <c r="M79" t="s">
+        <v>641</v>
       </c>
       <c r="N79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8758,22 +8790,22 @@
         <v>0.14261957982671661</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>-73.263999999999996</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>40.378999999999998</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
-      <c r="M80">
-        <v>1</v>
+      <c r="M80" t="s">
+        <v>642</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8802,22 +8834,22 @@
         <v>1.1011282250832231E-2</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>-73.144999999999996</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>40.851999999999997</v>
       </c>
       <c r="L81">
         <v>3</v>
       </c>
-      <c r="M81">
-        <v>1</v>
+      <c r="M81" t="s">
+        <v>642</v>
       </c>
       <c r="N81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8846,22 +8878,22 @@
         <v>-5.7327084611005753E-2</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>-73.775000000000006</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>40.491</v>
       </c>
       <c r="L82">
         <v>3</v>
       </c>
-      <c r="M82">
-        <v>1</v>
+      <c r="M82" t="s">
+        <v>643</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8890,22 +8922,22 @@
         <v>0.13208651779093089</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>-73.783000000000001</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="L83">
         <v>3</v>
       </c>
-      <c r="M83">
-        <v>1</v>
+      <c r="M83" t="s">
+        <v>643</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8934,22 +8966,22 @@
         <v>0.40114996593688068</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>-82.905000000000001</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>42.11</v>
       </c>
       <c r="L84">
         <v>4</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8978,22 +9010,22 @@
         <v>0.40993246273291623</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-83.24</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>41.975000000000001</v>
       </c>
       <c r="L85">
         <v>4</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9022,22 +9054,22 @@
         <v>0.63614807774240523</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>-82.442999999999998</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>42.543999999999997</v>
       </c>
       <c r="L86">
         <v>4</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9066,22 +9098,22 @@
         <v>0.72828051829668194</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>-82.475999999999999</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="L87">
         <v>4</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9110,22 +9142,22 @@
         <v>0.58733819988113178</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>-82.61</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>42.436999999999998</v>
       </c>
       <c r="L88">
         <v>4</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9154,22 +9186,22 @@
         <v>0.57345061502301287</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>-81.917000000000002</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9198,22 +9230,22 @@
         <v>0.52798653333781265</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>-82.204999999999998</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L90">
         <v>4</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9242,22 +9274,22 @@
         <v>0.52537901143533305</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>-82.468000000000004</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="L91">
         <v>4</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9286,22 +9318,22 @@
         <v>0.19571075034313221</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>-79.406000000000006</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>43.875999999999998</v>
       </c>
       <c r="L92">
         <v>4</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9330,22 +9362,22 @@
         <v>0.32606066552832857</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>-81.094999999999999</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>46.481999999999999</v>
       </c>
       <c r="L93">
         <v>4</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9374,22 +9406,22 @@
         <v>0.13169207337998021</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>-79.638999999999996</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>44.732999999999997</v>
       </c>
       <c r="L94">
         <v>4</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9418,22 +9450,22 @@
         <v>0.1357726531711429</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>-80.100999999999999</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L95">
         <v>4</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9462,22 +9494,22 @@
         <v>0.25540799207834619</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>-78.102000000000004</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>46.087000000000003</v>
       </c>
       <c r="L96">
         <v>4</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9506,22 +9538,22 @@
         <v>0.26530051827864998</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>-79.522999999999996</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>46.194000000000003</v>
       </c>
       <c r="L97">
         <v>4</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9550,22 +9582,22 @@
         <v>0.2451873439786674</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>-81.349000000000004</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>46.198999999999998</v>
       </c>
       <c r="L98">
         <v>4</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9594,22 +9626,22 @@
         <v>0.55801841377687911</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>-75.953000000000003</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>44.637</v>
       </c>
       <c r="L99">
         <v>4</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9638,22 +9670,22 @@
         <v>0.54668773627293188</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>-75.372</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>44.975999999999999</v>
       </c>
       <c r="L100">
         <v>4</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9682,22 +9714,22 @@
         <v>0.45933749786911959</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>-74.852999999999994</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>45.066000000000003</v>
       </c>
       <c r="L101">
         <v>4</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9726,22 +9758,22 @@
         <v>0.42495974759258742</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>-79.843000000000004</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>42.917000000000002</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9770,22 +9802,22 @@
         <v>0.44548831025454461</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>-79.349000000000004</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>43.265999999999998</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9814,22 +9846,22 @@
         <v>0.44185104409338838</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>-79.316999999999993</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>43.069000000000003</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9858,22 +9890,22 @@
         <v>0.22992967565773301</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>-80.019000000000005</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>43.148000000000003</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9902,22 +9934,22 @@
         <v>0.4210170488123321</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>-81.486000000000004</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>42.731000000000002</v>
       </c>
       <c r="L106">
         <v>4</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9946,22 +9978,22 @@
         <v>0.25457197936664089</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>-80.921000000000006</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>43.137</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9990,22 +10022,22 @@
         <v>0.27808680037876049</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>-80.793000000000006</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>42.99</v>
       </c>
       <c r="L108">
         <v>4</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10034,22 +10066,22 @@
         <v>0.24287129206127089</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>-79.781000000000006</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>43.706000000000003</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10078,22 +10110,22 @@
         <v>0.24244368639453229</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>-79.94</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>43.34</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10122,22 +10154,22 @@
         <v>0.21711721361884259</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>-79.644000000000005</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>43.103000000000002</v>
       </c>
       <c r="L111">
         <v>4</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10166,22 +10198,22 @@
         <v>0.17520138630294679</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>-80.754000000000005</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>43.52</v>
       </c>
       <c r="L112">
         <v>4</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10210,22 +10242,22 @@
         <v>0.51671519702843316</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>-81.564999999999998</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>42.206000000000003</v>
       </c>
       <c r="L113">
         <v>4</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10254,22 +10286,22 @@
         <v>0.39177929318292309</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>-82.123000000000005</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>42.003</v>
       </c>
       <c r="L114">
         <v>4</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10298,22 +10330,22 @@
         <v>0.53475492017704662</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>-82.763000000000005</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L115">
         <v>5</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10342,22 +10374,22 @@
         <v>0.58377423754855939</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>-82.77</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="L116">
         <v>5</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10386,22 +10418,22 @@
         <v>0.46862090416047752</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>-82.921000000000006</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>42.323999999999998</v>
       </c>
       <c r="L117">
         <v>5</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10430,22 +10462,22 @@
         <v>0.53869761895730184</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>-83.488</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>42.573</v>
       </c>
       <c r="L118">
         <v>5</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10474,22 +10506,22 @@
         <v>0.55482446124572948</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>-83.495000000000005</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>42.127000000000002</v>
       </c>
       <c r="L119">
         <v>5</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10518,22 +10550,22 @@
         <v>0.52780152843710126</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>-83.632999999999996</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>43.109000000000002</v>
       </c>
       <c r="L120">
         <v>5</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10562,22 +10594,22 @@
         <v>0.46547233018987971</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>-85.754999999999995</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>43.198999999999998</v>
       </c>
       <c r="L121">
         <v>5</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10606,22 +10638,22 @@
         <v>0.57408416954148689</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>-83.144999999999996</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>42.494</v>
       </c>
       <c r="L122">
         <v>5</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10650,22 +10682,22 @@
         <v>0.56411135819559122</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>-83.200999999999993</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>42.319000000000003</v>
       </c>
       <c r="L123">
         <v>5</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10694,22 +10726,22 @@
         <v>0.65645847424786319</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>-83.501999999999995</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>41.619</v>
       </c>
       <c r="L124">
         <v>5</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10738,22 +10770,22 @@
         <v>4.161039469679681E-2</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>-74.709000000000003</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>40.627000000000002</v>
       </c>
       <c r="L125">
         <v>6</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10782,22 +10814,22 @@
         <v>-5.9620447248126297E-2</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>-74.301000000000002</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>40.485999999999997</v>
       </c>
       <c r="L126">
         <v>6</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -10826,22 +10858,22 @@
         <v>-9.41517864988341E-2</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>-74.046999999999997</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>40.892000000000003</v>
       </c>
       <c r="L127">
         <v>6</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -10870,22 +10902,22 @@
         <v>0.1143539725906685</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>-75.706000000000003</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>40.779000000000003</v>
       </c>
       <c r="L128">
         <v>6</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -10914,22 +10946,22 @@
         <v>4.7781878931848758E-2</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>-75.201999999999998</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>40.136000000000003</v>
       </c>
       <c r="L129">
         <v>6</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10958,22 +10990,22 @@
         <v>0.15603418045754511</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>-75.680000000000007</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>39.837000000000003</v>
       </c>
       <c r="L130">
         <v>6</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11002,22 +11034,22 @@
         <v>0.2128708275487404</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>-76.078999999999994</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="L131">
         <v>6</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11046,22 +11078,22 @@
         <v>0.23409228592373951</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>-76.518000000000001</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>39.960999999999999</v>
       </c>
       <c r="L132">
         <v>6</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11090,22 +11122,22 @@
         <v>0.34132531516627113</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>-77.388999999999996</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>40.637999999999998</v>
       </c>
       <c r="L133">
         <v>6</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11134,22 +11166,22 @@
         <v>0.59948569147501229</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>-79.096000000000004</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>40.435000000000002</v>
       </c>
       <c r="L134">
         <v>6</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11178,22 +11210,22 @@
         <v>0.44639239080707771</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>-78.825999999999993</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>41.072000000000003</v>
       </c>
       <c r="L135">
         <v>6</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11222,22 +11254,22 @@
         <v>0.61097519394089106</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>-79.408000000000001</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>40.784999999999997</v>
       </c>
       <c r="L136">
         <v>6</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11266,22 +11298,22 @@
         <v>0.34413704059123401</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>-80.295000000000002</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>41.664999999999999</v>
       </c>
       <c r="L137">
         <v>6</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11310,22 +11342,22 @@
         <v>0.3547294438215875</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>-79.953000000000003</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>42.133000000000003</v>
       </c>
       <c r="L138">
         <v>6</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11354,22 +11386,22 @@
         <v>0.2365392375350355</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>-76.266000000000005</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>41.715000000000003</v>
       </c>
       <c r="L139">
         <v>6</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11398,22 +11430,22 @@
         <v>0.51274282765089418</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>-82.212000000000003</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>38.94</v>
       </c>
       <c r="L140">
         <v>6</v>
       </c>
       <c r="M140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11442,22 +11474,23 @@
         <v>0.52726745768599093</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>-79.283000000000001</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="L141">
         <v>6</v>
       </c>
       <c r="M141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11471,9 +11504,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11508,7 +11541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11543,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11578,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11613,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11648,7 +11681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11683,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11718,7 +11751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11753,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11788,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11823,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11858,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11893,7 +11926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11928,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11963,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11998,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12033,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12068,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12103,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12138,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12173,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12208,7 +12241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12243,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12278,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12313,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12348,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12383,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12418,7 +12451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12453,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12488,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12523,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12558,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12593,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12628,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12663,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12698,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12733,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12768,7 +12801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12803,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12838,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12873,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12908,7 +12941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12943,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12978,7 +13011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -13013,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13048,7 +13081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13083,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13118,7 +13151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13153,7 +13186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13188,7 +13221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13223,7 +13256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13258,7 +13291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13293,7 +13326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13328,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13363,7 +13396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13398,7 +13431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13433,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13468,7 +13501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13503,7 +13536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13538,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13573,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13608,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13643,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13678,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13713,7 +13746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13748,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13783,7 +13816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13818,7 +13851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13853,7 +13886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13888,7 +13921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13923,7 +13956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13958,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13993,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -14028,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -14063,7 +14096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -14098,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -14133,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -14168,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -14203,7 +14236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -14238,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -14273,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -14308,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -14343,7 +14376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -14378,7 +14411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -14413,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -14448,7 +14481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -14483,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -14518,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -14553,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -14588,7 +14621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -14623,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -14658,7 +14691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -14693,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -14737,14 +14770,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11:G30"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -14803,7 +14836,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14859,7 +14892,7 @@
         <v>0.2175</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14915,7 +14948,7 @@
         <v>0.20649999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14971,7 +15004,7 @@
         <v>9.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15027,7 +15060,7 @@
         <v>0.2235</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15083,7 +15116,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15139,7 +15172,7 @@
         <v>0.20930000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15195,7 +15228,7 @@
         <v>0.28170000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -15251,7 +15284,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -15307,7 +15340,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15363,7 +15396,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15419,7 +15452,7 @@
         <v>0.35189999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15475,7 +15508,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15531,7 +15564,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15587,7 +15620,7 @@
         <v>6.1949999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15643,7 +15676,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -15699,7 +15732,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -15755,7 +15788,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15811,7 +15844,7 @@
         <v>0.3624</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -15867,7 +15900,7 @@
         <v>0.25750000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -15923,7 +15956,7 @@
         <v>0.16239999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -15979,7 +16012,7 @@
         <v>0.23535</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -16035,7 +16068,7 @@
         <v>0.18940000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -16091,7 +16124,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -16147,7 +16180,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -16203,7 +16236,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -16259,7 +16292,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16315,7 +16348,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16371,7 +16404,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16427,7 +16460,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16483,7 +16516,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -16539,7 +16572,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -16595,7 +16628,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -16651,7 +16684,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -16707,7 +16740,7 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -16763,7 +16796,7 @@
         <v>0.22950000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -16819,7 +16852,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -16875,7 +16908,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -16931,7 +16964,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -16987,7 +17020,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -17043,7 +17076,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -17099,7 +17132,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -17155,7 +17188,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -17211,7 +17244,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -17267,7 +17300,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -17323,7 +17356,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -17379,7 +17412,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -17449,9 +17482,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -17513,7 +17546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17583,12 +17616,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -17662,7 +17695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17727,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -17792,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -17857,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17922,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17987,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18052,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18117,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18182,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18247,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18312,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18377,7 +18410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18442,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18507,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18572,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -18637,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -18702,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -18767,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -18832,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -18897,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -18962,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19027,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19092,7 +19125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19157,7 +19190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19222,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19287,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19352,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19417,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19482,7 +19515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19547,7 +19580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19612,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19677,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19742,7 +19775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19807,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19872,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19937,7 +19970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -20002,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20067,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20132,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -20197,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -20262,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -20327,7 +20360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -20392,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -20457,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -20522,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -20587,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -20652,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -20717,7 +20750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -20782,7 +20815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -20847,7 +20880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20912,7 +20945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -20977,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -21042,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -21107,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -21172,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -21237,7 +21270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -21302,7 +21335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -21367,7 +21400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -21432,7 +21465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -21497,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -21562,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -21627,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -21692,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -21757,7 +21790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -21822,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -21887,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -21952,7 +21985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -22017,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -22082,7 +22115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -22147,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -22212,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -22277,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -22342,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -22407,7 +22440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -22472,7 +22505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -22537,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -22602,7 +22635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -22667,7 +22700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -22732,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -22797,7 +22830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -22862,7 +22895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -22927,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -22992,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -23057,7 +23090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -23122,7 +23155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -23187,7 +23220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -23252,7 +23285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -23317,7 +23350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -23382,7 +23415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -23447,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -23512,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -23577,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -23642,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -23707,7 +23740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -23772,7 +23805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -23837,7 +23870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -23902,7 +23935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -23967,7 +24000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -24032,7 +24065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -24097,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -24162,7 +24195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -24227,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -24292,7 +24325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -24357,7 +24390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -24422,7 +24455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -24487,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -24552,7 +24585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -24617,7 +24650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -24682,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -24747,7 +24780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -24812,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -24877,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -24942,7 +24975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -25007,7 +25040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -25072,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -25137,7 +25170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -25202,7 +25235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -25267,7 +25300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -25332,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -25397,7 +25430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -25462,7 +25495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -25527,7 +25560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -25592,7 +25625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -25657,7 +25690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -25722,7 +25755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -25787,7 +25820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -25852,7 +25885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -25917,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -25982,7 +26015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -26047,7 +26080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -26112,7 +26145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -26177,7 +26210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -26242,7 +26275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -26307,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -26372,7 +26405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -26437,7 +26470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -26502,7 +26535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -26567,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -26632,7 +26665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -26697,7 +26730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -26762,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -26827,7 +26860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -26892,7 +26925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -26957,7 +26990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -27022,7 +27055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -27087,7 +27120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -27152,7 +27185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -27217,7 +27250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -27282,7 +27315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -27347,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -27412,7 +27445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -27477,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -27542,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -27607,7 +27640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -27672,7 +27705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -27737,7 +27770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -27802,7 +27835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -27867,7 +27900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -27932,7 +27965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -27997,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -28062,7 +28095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -28127,7 +28160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -28192,7 +28225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -28257,7 +28290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -28322,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -28387,7 +28420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -28452,7 +28485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -28517,7 +28550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -28582,7 +28615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -28647,7 +28680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -28712,7 +28745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -28777,7 +28810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -28842,7 +28875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -28907,7 +28940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28972,7 +29005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -29037,7 +29070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -29102,7 +29135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -29167,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -29232,7 +29265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -29297,7 +29330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -29362,7 +29395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29427,7 +29460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -29492,7 +29525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -29557,7 +29590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -29622,7 +29655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -29687,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -29752,7 +29785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -29817,7 +29850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -29882,7 +29915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -29947,7 +29980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -30012,7 +30045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -30077,7 +30110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -30142,7 +30175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -30207,7 +30240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -30272,7 +30305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -30337,7 +30370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -30402,7 +30435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -30467,7 +30500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -30532,7 +30565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -30597,7 +30630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -30662,7 +30695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -30727,7 +30760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -30792,7 +30825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -30857,7 +30890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -30922,7 +30955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -30987,7 +31020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -31052,7 +31085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -31117,7 +31150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -31182,7 +31215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -31247,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -31312,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -31377,7 +31410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -31442,7 +31475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -31507,7 +31540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -31572,7 +31605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -31637,7 +31670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -31702,7 +31735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -31767,7 +31800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -31832,7 +31865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -31897,7 +31930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -31962,7 +31995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -32027,7 +32060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -32092,7 +32125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -32157,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -32222,7 +32255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -32287,7 +32320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -32352,7 +32385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -32417,7 +32450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -32482,7 +32515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -32547,7 +32580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -32612,7 +32645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -32677,7 +32710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -32742,7 +32775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -32821,9 +32854,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -32837,7 +32870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -32851,7 +32884,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -32865,7 +32898,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -32879,7 +32912,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -32893,7 +32926,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -32907,7 +32940,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -32935,12 +32968,12 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -32999,7 +33032,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -33055,7 +33088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -33111,7 +33144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -33167,7 +33200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -33223,7 +33256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -33279,7 +33312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -33335,7 +33368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -33391,7 +33424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -33447,7 +33480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -33503,7 +33536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -33559,7 +33592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -33615,7 +33648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -33671,7 +33704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -33727,7 +33760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -33783,7 +33816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -33839,7 +33872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -33895,7 +33928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -33951,7 +33984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -34007,7 +34040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -34063,7 +34096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -34119,7 +34152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -34189,12 +34222,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -34280,7 +34313,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -34363,7 +34396,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -34446,7 +34479,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -34529,7 +34562,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -34612,7 +34645,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -34695,7 +34728,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -34778,7 +34811,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -34861,7 +34894,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -34944,7 +34977,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -35027,7 +35060,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -35110,7 +35143,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -35193,7 +35226,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -35276,7 +35309,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -35359,7 +35392,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -35442,7 +35475,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -35525,7 +35558,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -35608,7 +35641,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -35691,7 +35724,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -35774,7 +35807,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -35857,7 +35890,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -35940,7 +35973,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -36023,7 +36056,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -36106,7 +36139,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -36189,7 +36222,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -36272,7 +36305,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -36355,7 +36388,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -36438,7 +36471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>

--- a/Data/npcc.xlsx
+++ b/Data/npcc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\Baseline-powergrid-model-for-NY\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071320B-FA33-4A57-BC15-9F7B433FF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B27A7-D115-453F-8094-E17235F36BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5988" yWindow="3048" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="11" r:id="rId1"/>
@@ -5275,13 +5275,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18:J19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M142" sqref="M142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6915,19 +6916,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E38">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F38">
         <v>1.1000000000000001</v>
@@ -6936,22 +6937,22 @@
         <v>0.9</v>
       </c>
       <c r="H38">
-        <v>1.04419</v>
+        <v>0.95576000000000005</v>
       </c>
       <c r="I38">
-        <v>8.0393356005362807E-2</v>
+        <v>0.40114996593688068</v>
       </c>
       <c r="J38">
-        <v>-73.923000000000002</v>
+        <v>-82.905000000000001</v>
       </c>
       <c r="K38">
-        <v>42.494</v>
+        <v>42.11</v>
       </c>
       <c r="L38">
-        <v>2</v>
-      </c>
-      <c r="M38" t="s">
-        <v>634</v>
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -6959,19 +6960,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E39">
-        <v>345</v>
+        <v>118.1</v>
       </c>
       <c r="F39">
         <v>1.1000000000000001</v>
@@ -6980,22 +6981,22 @@
         <v>0.9</v>
       </c>
       <c r="H39">
-        <v>1.0421</v>
+        <v>0.96323000000000003</v>
       </c>
       <c r="I39">
-        <v>0.1217402059851085</v>
+        <v>0.40993246273291623</v>
       </c>
       <c r="J39">
-        <v>-74.88</v>
+        <v>-83.24</v>
       </c>
       <c r="K39">
-        <v>42.335999999999999</v>
+        <v>41.975000000000001</v>
       </c>
       <c r="L39">
-        <v>2</v>
-      </c>
-      <c r="M39" t="s">
-        <v>635</v>
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -7003,19 +7004,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E40">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F40">
         <v>1.1000000000000001</v>
@@ -7024,22 +7025,22 @@
         <v>0.9</v>
       </c>
       <c r="H40">
-        <v>1.0409999999999999</v>
+        <v>0.99128000000000005</v>
       </c>
       <c r="I40">
-        <v>5.7140334381042351E-2</v>
+        <v>0.63614807774240523</v>
       </c>
       <c r="J40">
-        <v>-74.001000000000005</v>
+        <v>-82.442999999999998</v>
       </c>
       <c r="K40">
-        <v>42.042000000000002</v>
+        <v>42.543999999999997</v>
       </c>
       <c r="L40">
-        <v>2</v>
-      </c>
-      <c r="M40" t="s">
-        <v>636</v>
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -7047,19 +7048,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E41">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="F41">
         <v>1.1000000000000001</v>
@@ -7068,22 +7069,22 @@
         <v>0.9</v>
       </c>
       <c r="H41">
-        <v>1.0307200000000001</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1.0056587149991331E-2</v>
+        <v>0.72828051829668194</v>
       </c>
       <c r="J41">
-        <v>-74.066000000000003</v>
+        <v>-82.475999999999999</v>
       </c>
       <c r="K41">
-        <v>42.646000000000001</v>
+        <v>42.81</v>
       </c>
       <c r="L41">
-        <v>2</v>
-      </c>
-      <c r="M41" t="s">
-        <v>634</v>
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -7091,19 +7092,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E42">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F42">
         <v>1.1000000000000001</v>
@@ -7112,22 +7113,22 @@
         <v>0.9</v>
       </c>
       <c r="H42">
-        <v>1.02634</v>
+        <v>1.01813</v>
       </c>
       <c r="I42">
-        <v>-5.8833303755476851E-2</v>
+        <v>0.58733819988113178</v>
       </c>
       <c r="J42">
-        <v>-73.78</v>
+        <v>-82.61</v>
       </c>
       <c r="K42">
-        <v>43.085999999999999</v>
+        <v>42.436999999999998</v>
       </c>
       <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42" t="s">
-        <v>634</v>
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -7135,19 +7136,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E43">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F43">
         <v>1.1000000000000001</v>
@@ -7156,22 +7157,22 @@
         <v>0.9</v>
       </c>
       <c r="H43">
-        <v>1.04</v>
+        <v>0.97335000000000005</v>
       </c>
       <c r="I43">
-        <v>-4.4793875252434473E-2</v>
+        <v>0.57345061502301287</v>
       </c>
       <c r="J43">
-        <v>-73.628</v>
+        <v>-81.917000000000002</v>
       </c>
       <c r="K43">
-        <v>42.701999999999998</v>
+        <v>42.81</v>
       </c>
       <c r="L43">
-        <v>2</v>
-      </c>
-      <c r="M43" t="s">
-        <v>634</v>
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -7179,19 +7180,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E44">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F44">
         <v>1.1000000000000001</v>
@@ -7200,22 +7201,22 @@
         <v>0.9</v>
       </c>
       <c r="H44">
-        <v>1.04908</v>
+        <v>0.95584000000000002</v>
       </c>
       <c r="I44">
-        <v>0.14561281949388691</v>
+        <v>0.52798653333781265</v>
       </c>
       <c r="J44">
-        <v>-75.239999999999995</v>
+        <v>-82.204999999999998</v>
       </c>
       <c r="K44">
-        <v>42.893999999999998</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44" t="s">
-        <v>635</v>
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -7223,19 +7224,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E45">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F45">
         <v>1.1000000000000001</v>
@@ -7244,22 +7245,22 @@
         <v>0.9</v>
       </c>
       <c r="H45">
-        <v>1.04792</v>
+        <v>0.95411000000000001</v>
       </c>
       <c r="I45">
-        <v>0.1146611505390195</v>
+        <v>0.52537901143533305</v>
       </c>
       <c r="J45">
-        <v>-75.135999999999996</v>
+        <v>-82.468000000000004</v>
       </c>
       <c r="K45">
-        <v>43.012999999999998</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45" t="s">
-        <v>635</v>
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -7267,19 +7268,19 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E46">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F46">
         <v>1.1000000000000001</v>
@@ -7288,22 +7289,22 @@
         <v>0.9</v>
       </c>
       <c r="H46">
-        <v>1.04349</v>
+        <v>1.04</v>
       </c>
       <c r="I46">
-        <v>6.889163623472018E-2</v>
+        <v>0.19571075034313221</v>
       </c>
       <c r="J46">
-        <v>-75.239999999999995</v>
+        <v>-79.406000000000006</v>
       </c>
       <c r="K46">
-        <v>43.131</v>
+        <v>43.875999999999998</v>
       </c>
       <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46" t="s">
-        <v>635</v>
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -7311,19 +7312,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E47">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="F47">
         <v>1.1000000000000001</v>
@@ -7332,22 +7333,22 @@
         <v>0.9</v>
       </c>
       <c r="H47">
-        <v>1.0478099999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I47">
-        <v>0.1079486142358493</v>
+        <v>0.32606066552832857</v>
       </c>
       <c r="J47">
-        <v>-75.051000000000002</v>
+        <v>-81.094999999999999</v>
       </c>
       <c r="K47">
-        <v>44.427999999999997</v>
+        <v>46.481999999999999</v>
       </c>
       <c r="L47">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s">
-        <v>635</v>
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -7355,19 +7356,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E48">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F48">
         <v>1.1000000000000001</v>
@@ -7376,22 +7377,22 @@
         <v>0.9</v>
       </c>
       <c r="H48">
-        <v>1.03</v>
+        <v>0.96211000000000002</v>
       </c>
       <c r="I48">
-        <v>0.20384223932817369</v>
+        <v>0.13169207337998021</v>
       </c>
       <c r="J48">
-        <v>-75.210999999999999</v>
+        <v>-79.638999999999996</v>
       </c>
       <c r="K48">
-        <v>44.654000000000003</v>
+        <v>44.732999999999997</v>
       </c>
       <c r="L48">
-        <v>2</v>
-      </c>
-      <c r="M48" t="s">
-        <v>635</v>
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -7399,19 +7400,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E49">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F49">
         <v>1.1000000000000001</v>
@@ -7420,22 +7421,22 @@
         <v>0.9</v>
       </c>
       <c r="H49">
-        <v>1.05</v>
+        <v>0.95948</v>
       </c>
       <c r="I49">
-        <v>0.26202104461415271</v>
+        <v>0.1357726531711429</v>
       </c>
       <c r="J49">
-        <v>-74.820999999999998</v>
+        <v>-80.100999999999999</v>
       </c>
       <c r="K49">
-        <v>44.845999999999997</v>
+        <v>44</v>
       </c>
       <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49" t="s">
-        <v>486</v>
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -7443,19 +7444,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E50">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F50">
         <v>1.1000000000000001</v>
@@ -7464,22 +7465,22 @@
         <v>0.9</v>
       </c>
       <c r="H50">
-        <v>0.96523000000000003</v>
+        <v>0.97263999999999995</v>
       </c>
       <c r="I50">
-        <v>-1.948136511076071E-2</v>
+        <v>0.25540799207834619</v>
       </c>
       <c r="J50">
-        <v>-74.134</v>
+        <v>-78.102000000000004</v>
       </c>
       <c r="K50">
-        <v>44.698999999999998</v>
+        <v>46.087000000000003</v>
       </c>
       <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50" t="s">
-        <v>486</v>
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -7487,19 +7488,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E51">
-        <v>345</v>
+        <v>13.8</v>
       </c>
       <c r="F51">
         <v>1.1000000000000001</v>
@@ -7508,22 +7509,22 @@
         <v>0.9</v>
       </c>
       <c r="H51">
-        <v>1.05</v>
+        <v>1.0232300000000001</v>
       </c>
       <c r="I51">
-        <v>0.23063478867553869</v>
+        <v>0.26530051827864998</v>
       </c>
       <c r="J51">
-        <v>-76.332999999999998</v>
+        <v>-79.522999999999996</v>
       </c>
       <c r="K51">
-        <v>43.305999999999997</v>
+        <v>46.194000000000003</v>
       </c>
       <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -7531,19 +7532,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E52">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F52">
         <v>1.1000000000000001</v>
@@ -7555,19 +7556,19 @@
         <v>1.04</v>
       </c>
       <c r="I52">
-        <v>0.14884691459783239</v>
+        <v>0.2451873439786674</v>
       </c>
       <c r="J52">
-        <v>-76.260999999999996</v>
+        <v>-81.349000000000004</v>
       </c>
       <c r="K52">
-        <v>42.939</v>
+        <v>46.198999999999998</v>
       </c>
       <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -7575,19 +7576,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E53">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F53">
         <v>1.1000000000000001</v>
@@ -7596,22 +7597,22 @@
         <v>0.9</v>
       </c>
       <c r="H53">
-        <v>1.04193</v>
+        <v>1.04</v>
       </c>
       <c r="I53">
-        <v>0.33882076768965919</v>
+        <v>0.55801841377687911</v>
       </c>
       <c r="J53">
-        <v>-77.481999999999999</v>
+        <v>-75.953000000000003</v>
       </c>
       <c r="K53">
-        <v>43.311999999999998</v>
+        <v>44.637</v>
       </c>
       <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53" t="s">
-        <v>638</v>
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -7619,19 +7620,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E54">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F54">
         <v>1.1000000000000001</v>
@@ -7640,22 +7641,22 @@
         <v>0.9</v>
       </c>
       <c r="H54">
-        <v>1.03</v>
+        <v>1.0384199999999999</v>
       </c>
       <c r="I54">
-        <v>0.314251767809335</v>
+        <v>0.54668773627293188</v>
       </c>
       <c r="J54">
-        <v>-77.777000000000001</v>
+        <v>-75.372</v>
       </c>
       <c r="K54">
-        <v>42.889000000000003</v>
+        <v>44.975999999999999</v>
       </c>
       <c r="L54">
-        <v>2</v>
-      </c>
-      <c r="M54" t="s">
-        <v>638</v>
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -7663,19 +7664,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E55">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F55">
         <v>1.1000000000000001</v>
@@ -7684,22 +7685,22 @@
         <v>0.9</v>
       </c>
       <c r="H55">
-        <v>1.0407999999999999</v>
+        <v>1.0324800000000001</v>
       </c>
       <c r="I55">
-        <v>0.47005381947636482</v>
+        <v>0.45933749786911959</v>
       </c>
       <c r="J55">
-        <v>-78.352000000000004</v>
+        <v>-74.852999999999994</v>
       </c>
       <c r="K55">
-        <v>43.125</v>
+        <v>45.066000000000003</v>
       </c>
       <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -7707,19 +7708,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E56">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F56">
         <v>1.1000000000000001</v>
@@ -7728,22 +7729,22 @@
         <v>0.9</v>
       </c>
       <c r="H56">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I56">
-        <v>0.45744207030145378</v>
+        <v>0.42495974759258742</v>
       </c>
       <c r="J56">
-        <v>-78.590999999999994</v>
+        <v>-79.843000000000004</v>
       </c>
       <c r="K56">
-        <v>42.996000000000002</v>
+        <v>42.917000000000002</v>
       </c>
       <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -7751,19 +7752,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E57">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F57">
         <v>1.1000000000000001</v>
@@ -7772,22 +7773,22 @@
         <v>0.9</v>
       </c>
       <c r="H57">
-        <v>1.03</v>
+        <v>1.0455000000000001</v>
       </c>
       <c r="I57">
-        <v>0.46948484214021469</v>
+        <v>0.44548831025454461</v>
       </c>
       <c r="J57">
-        <v>-78.742999999999995</v>
+        <v>-79.349000000000004</v>
       </c>
       <c r="K57">
-        <v>43.311999999999998</v>
+        <v>43.265999999999998</v>
       </c>
       <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -7795,19 +7796,19 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E58">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F58">
         <v>1.1000000000000001</v>
@@ -7816,22 +7817,22 @@
         <v>0.9</v>
       </c>
       <c r="H58">
-        <v>1.03</v>
+        <v>1.0462899999999999</v>
       </c>
       <c r="I58">
-        <v>0.44895627947825728</v>
+        <v>0.44185104409338838</v>
       </c>
       <c r="J58">
-        <v>-79.125</v>
+        <v>-79.316999999999993</v>
       </c>
       <c r="K58">
-        <v>42.911000000000001</v>
+        <v>43.069000000000003</v>
       </c>
       <c r="L58">
-        <v>2</v>
-      </c>
-      <c r="M58" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -7839,19 +7840,19 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E59">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F59">
         <v>1.1000000000000001</v>
@@ -7860,22 +7861,22 @@
         <v>0.9</v>
       </c>
       <c r="H59">
-        <v>1.0101</v>
+        <v>0.99699000000000004</v>
       </c>
       <c r="I59">
-        <v>0.42914679246812182</v>
+        <v>0.22992967565773301</v>
       </c>
       <c r="J59">
-        <v>-79.132999999999996</v>
+        <v>-80.019000000000005</v>
       </c>
       <c r="K59">
-        <v>42.713999999999999</v>
+        <v>43.148000000000003</v>
       </c>
       <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -7883,19 +7884,19 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F60">
         <v>1.1000000000000001</v>
@@ -7904,22 +7905,22 @@
         <v>0.9</v>
       </c>
       <c r="H60">
-        <v>0.99668999999999996</v>
+        <v>0.97457000000000005</v>
       </c>
       <c r="I60">
-        <v>0.38721351185970598</v>
+        <v>0.4210170488123321</v>
       </c>
       <c r="J60">
-        <v>-78.796999999999997</v>
+        <v>-81.486000000000004</v>
       </c>
       <c r="K60">
-        <v>42.561</v>
+        <v>42.731000000000002</v>
       </c>
       <c r="L60">
-        <v>2</v>
-      </c>
-      <c r="M60" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -7927,19 +7928,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E61">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F61">
         <v>1.1000000000000001</v>
@@ -7948,22 +7949,22 @@
         <v>0.9</v>
       </c>
       <c r="H61">
-        <v>1.04</v>
+        <v>0.99289000000000005</v>
       </c>
       <c r="I61">
-        <v>0.52740533869689854</v>
+        <v>0.25457197936664089</v>
       </c>
       <c r="J61">
-        <v>-79.314999999999998</v>
+        <v>-80.921000000000006</v>
       </c>
       <c r="K61">
-        <v>42.33</v>
+        <v>43.137</v>
       </c>
       <c r="L61">
-        <v>2</v>
-      </c>
-      <c r="M61" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -7971,19 +7972,19 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E62">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F62">
         <v>1.1000000000000001</v>
@@ -7992,22 +7993,22 @@
         <v>0.9</v>
       </c>
       <c r="H62">
-        <v>1.04</v>
+        <v>1.0061599999999999</v>
       </c>
       <c r="I62">
-        <v>0.46647414918052449</v>
+        <v>0.27808680037876049</v>
       </c>
       <c r="J62">
-        <v>-78.828000000000003</v>
+        <v>-80.793000000000006</v>
       </c>
       <c r="K62">
-        <v>42.234000000000002</v>
+        <v>42.99</v>
       </c>
       <c r="L62">
-        <v>2</v>
-      </c>
-      <c r="M62" t="s">
-        <v>639</v>
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -8015,19 +8016,19 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E63">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F63">
         <v>1.1000000000000001</v>
@@ -8036,22 +8037,22 @@
         <v>0.9</v>
       </c>
       <c r="H63">
-        <v>1.0162800000000001</v>
+        <v>1.0003299999999999</v>
       </c>
       <c r="I63">
-        <v>0.41823848464315722</v>
+        <v>0.24287129206127089</v>
       </c>
       <c r="J63">
-        <v>-78.254999999999995</v>
+        <v>-79.781000000000006</v>
       </c>
       <c r="K63">
-        <v>42.707999999999998</v>
+        <v>43.706000000000003</v>
       </c>
       <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63" t="s">
-        <v>638</v>
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -8059,19 +8060,19 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E64">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F64">
         <v>1.1000000000000001</v>
@@ -8080,22 +8081,22 @@
         <v>0.9</v>
       </c>
       <c r="H64">
-        <v>1.0054799999999999</v>
+        <v>1.0002899999999999</v>
       </c>
       <c r="I64">
-        <v>0.30799301711168342</v>
+        <v>0.24244368639453229</v>
       </c>
       <c r="J64">
-        <v>-77.823999999999998</v>
+        <v>-79.94</v>
       </c>
       <c r="K64">
-        <v>42.42</v>
+        <v>43.34</v>
       </c>
       <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="M64" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -8103,19 +8104,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E65">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F65">
         <v>1.1000000000000001</v>
@@ -8124,22 +8125,22 @@
         <v>0.9</v>
       </c>
       <c r="H65">
-        <v>1.00715</v>
+        <v>1.00281</v>
       </c>
       <c r="I65">
-        <v>0.25390351826312713</v>
+        <v>0.21711721361884259</v>
       </c>
       <c r="J65">
-        <v>-77.591999999999999</v>
+        <v>-79.644000000000005</v>
       </c>
       <c r="K65">
-        <v>42.408999999999999</v>
+        <v>43.103000000000002</v>
       </c>
       <c r="L65">
-        <v>2</v>
-      </c>
-      <c r="M65" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -8147,19 +8148,19 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E66">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F66">
         <v>1.1000000000000001</v>
@@ -8168,22 +8169,22 @@
         <v>0.9</v>
       </c>
       <c r="H66">
-        <v>1.04</v>
+        <v>0.96194000000000002</v>
       </c>
       <c r="I66">
-        <v>0.27499058628572259</v>
+        <v>0.17520138630294679</v>
       </c>
       <c r="J66">
-        <v>-76.977999999999994</v>
+        <v>-80.754000000000005</v>
       </c>
       <c r="K66">
-        <v>42.628999999999998</v>
+        <v>43.52</v>
       </c>
       <c r="L66">
-        <v>2</v>
-      </c>
-      <c r="M66" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -8191,19 +8192,19 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E67">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F67">
         <v>1.1000000000000001</v>
@@ -8212,22 +8213,22 @@
         <v>0.9</v>
       </c>
       <c r="H67">
-        <v>1.0197499999999999</v>
+        <v>0.97541</v>
       </c>
       <c r="I67">
-        <v>0.36431304674428838</v>
+        <v>0.51671519702843316</v>
       </c>
       <c r="J67">
-        <v>-76.203000000000003</v>
+        <v>-81.564999999999998</v>
       </c>
       <c r="K67">
-        <v>41.862000000000002</v>
+        <v>42.206000000000003</v>
       </c>
       <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -8235,19 +8236,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E68">
-        <v>230</v>
+        <v>118.1</v>
       </c>
       <c r="F68">
         <v>1.1000000000000001</v>
@@ -8256,22 +8257,22 @@
         <v>0.9</v>
       </c>
       <c r="H68">
-        <v>1.00265</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="I68">
-        <v>0.29114360851293009</v>
+        <v>0.39177929318292309</v>
       </c>
       <c r="J68">
-        <v>-77.040999999999997</v>
+        <v>-82.123000000000005</v>
       </c>
       <c r="K68">
-        <v>41.951999999999998</v>
+        <v>42.003</v>
       </c>
       <c r="L68">
-        <v>2</v>
-      </c>
-      <c r="M68" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -8279,19 +8280,19 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E69">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F69">
         <v>1.1000000000000001</v>
@@ -8300,22 +8301,22 @@
         <v>0.9</v>
       </c>
       <c r="H69">
-        <v>0.99</v>
+        <v>0.95972000000000002</v>
       </c>
       <c r="I69">
-        <v>0.2224107972401414</v>
+        <v>0.53475492017704662</v>
       </c>
       <c r="J69">
-        <v>-76.713999999999999</v>
+        <v>-82.763000000000005</v>
       </c>
       <c r="K69">
-        <v>42.15</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69" t="s">
-        <v>637</v>
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -8323,19 +8324,19 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E70">
-        <v>345</v>
+        <v>500</v>
       </c>
       <c r="F70">
         <v>1.1000000000000001</v>
@@ -8344,22 +8345,22 @@
         <v>0.9</v>
       </c>
       <c r="H70">
-        <v>1.0194799999999999</v>
+        <v>1.02</v>
       </c>
       <c r="I70">
-        <v>0.25020342024889908</v>
+        <v>0.58377423754855939</v>
       </c>
       <c r="J70">
-        <v>-75.397000000000006</v>
+        <v>-82.77</v>
       </c>
       <c r="K70">
-        <v>42.009</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="L70">
-        <v>2</v>
-      </c>
-      <c r="M70" t="s">
-        <v>635</v>
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -8367,19 +8368,19 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="E71">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F71">
         <v>1.1000000000000001</v>
@@ -8388,22 +8389,22 @@
         <v>0.9</v>
       </c>
       <c r="H71">
-        <v>0.99894000000000005</v>
+        <v>0.99338000000000004</v>
       </c>
       <c r="I71">
-        <v>0.2367748569840547</v>
+        <v>0.46862090416047752</v>
       </c>
       <c r="J71">
-        <v>-75.988</v>
+        <v>-82.921000000000006</v>
       </c>
       <c r="K71">
-        <v>42.014000000000003</v>
+        <v>42.323999999999998</v>
       </c>
       <c r="L71">
-        <v>2</v>
-      </c>
-      <c r="M71" t="s">
-        <v>637</v>
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -8411,19 +8412,19 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E72">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="F72">
         <v>1.1000000000000001</v>
@@ -8432,22 +8433,22 @@
         <v>0.9</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>1.0050600000000001</v>
       </c>
       <c r="I72">
-        <v>0.1939793837251538</v>
+        <v>0.53869761895730184</v>
       </c>
       <c r="J72">
-        <v>-75.789000000000001</v>
+        <v>-83.488</v>
       </c>
       <c r="K72">
-        <v>42.33</v>
+        <v>42.573</v>
       </c>
       <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72" t="s">
-        <v>637</v>
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -8455,16 +8456,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E73">
         <v>115</v>
@@ -8476,22 +8477,22 @@
         <v>0.9</v>
       </c>
       <c r="H73">
-        <v>1.05</v>
+        <v>0.99856999999999996</v>
       </c>
       <c r="I73">
-        <v>0.17659764970454231</v>
+        <v>0.55482446124572948</v>
       </c>
       <c r="J73">
-        <v>-76.093000000000004</v>
+        <v>-83.495000000000005</v>
       </c>
       <c r="K73">
-        <v>42.634999999999998</v>
+        <v>42.127000000000002</v>
       </c>
       <c r="L73">
-        <v>2</v>
-      </c>
-      <c r="M73" t="s">
-        <v>637</v>
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8499,19 +8500,19 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E74">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F74">
         <v>1.1000000000000001</v>
@@ -8520,22 +8521,22 @@
         <v>0.9</v>
       </c>
       <c r="H74">
-        <v>1.0329200000000001</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2.8581511830659139E-2</v>
+        <v>0.52780152843710126</v>
       </c>
       <c r="J74">
-        <v>-73.641000000000005</v>
+        <v>-83.632999999999996</v>
       </c>
       <c r="K74">
-        <v>41.58</v>
+        <v>43.109000000000002</v>
       </c>
       <c r="L74">
-        <v>3</v>
-      </c>
-      <c r="M74" t="s">
-        <v>636</v>
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -8543,19 +8544,19 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E75">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F75">
         <v>1.1000000000000001</v>
@@ -8564,22 +8565,22 @@
         <v>0.9</v>
       </c>
       <c r="H75">
-        <v>1.02708</v>
+        <v>1.02</v>
       </c>
       <c r="I75">
-        <v>5.1993358416911077E-3</v>
+        <v>0.46547233018987971</v>
       </c>
       <c r="J75">
-        <v>-73.769000000000005</v>
+        <v>-85.754999999999995</v>
       </c>
       <c r="K75">
-        <v>41.304000000000002</v>
+        <v>43.198999999999998</v>
       </c>
       <c r="L75">
-        <v>3</v>
-      </c>
-      <c r="M75" t="s">
-        <v>640</v>
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -8587,19 +8588,19 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E76">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="F76">
         <v>1.1000000000000001</v>
@@ -8608,22 +8609,22 @@
         <v>0.9</v>
       </c>
       <c r="H76">
-        <v>1.0494399999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I76">
-        <v>2.2045253781940371E-2</v>
+        <v>0.57408416954148689</v>
       </c>
       <c r="J76">
-        <v>-74.861000000000004</v>
+        <v>-83.144999999999996</v>
       </c>
       <c r="K76">
-        <v>41.078000000000003</v>
+        <v>42.494</v>
       </c>
       <c r="L76">
-        <v>3</v>
-      </c>
-      <c r="M76" t="s">
-        <v>636</v>
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -8631,19 +8632,19 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E77">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="F77">
         <v>1.1000000000000001</v>
@@ -8652,22 +8653,22 @@
         <v>0.9</v>
       </c>
       <c r="H77">
-        <v>1.0463899999999999</v>
+        <v>1.05</v>
       </c>
       <c r="I77">
-        <v>1.391725545540278E-2</v>
+        <v>0.56411135819559122</v>
       </c>
       <c r="J77">
-        <v>-74.311000000000007</v>
+        <v>-83.200999999999993</v>
       </c>
       <c r="K77">
-        <v>41.173999999999999</v>
+        <v>42.319000000000003</v>
       </c>
       <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77" t="s">
-        <v>636</v>
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -8675,19 +8676,19 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E78">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="F78">
         <v>1.1000000000000001</v>
@@ -8696,22 +8697,22 @@
         <v>0.9</v>
       </c>
       <c r="H78">
-        <v>1.03539</v>
+        <v>1.01</v>
       </c>
       <c r="I78">
-        <v>9.5260070573850494E-3</v>
+        <v>0.65645847424786319</v>
       </c>
       <c r="J78">
-        <v>-74.12</v>
+        <v>-83.501999999999995</v>
       </c>
       <c r="K78">
-        <v>41.36</v>
+        <v>41.619</v>
       </c>
       <c r="L78">
-        <v>3</v>
-      </c>
-      <c r="M78" t="s">
-        <v>636</v>
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -8719,19 +8720,19 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E79">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="F79">
         <v>1.1000000000000001</v>
@@ -8740,22 +8741,22 @@
         <v>0.9</v>
       </c>
       <c r="H79">
-        <v>1.02</v>
+        <v>1.04471</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4.161039469679681E-2</v>
       </c>
       <c r="J79">
-        <v>-73.424000000000007</v>
+        <v>-74.709000000000003</v>
       </c>
       <c r="K79">
-        <v>40.773000000000003</v>
+        <v>40.627000000000002</v>
       </c>
       <c r="L79">
-        <v>3</v>
-      </c>
-      <c r="M79" t="s">
-        <v>641</v>
+        <v>6</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -8763,19 +8764,19 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E80">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="F80">
         <v>1.1000000000000001</v>
@@ -8784,22 +8785,22 @@
         <v>0.9</v>
       </c>
       <c r="H80">
-        <v>1.05</v>
+        <v>1.02196</v>
       </c>
       <c r="I80">
-        <v>0.14261957982671661</v>
+        <v>-5.9620447248126297E-2</v>
       </c>
       <c r="J80">
-        <v>-73.263999999999996</v>
+        <v>-74.301000000000002</v>
       </c>
       <c r="K80">
-        <v>40.378999999999998</v>
+        <v>40.485999999999997</v>
       </c>
       <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80" t="s">
-        <v>642</v>
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -8807,19 +8808,19 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="E81">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="F81">
         <v>1.1000000000000001</v>
@@ -8828,22 +8829,22 @@
         <v>0.9</v>
       </c>
       <c r="H81">
-        <v>1.0232000000000001</v>
+        <v>1.02261</v>
       </c>
       <c r="I81">
-        <v>1.1011282250832231E-2</v>
+        <v>-9.41517864988341E-2</v>
       </c>
       <c r="J81">
-        <v>-73.144999999999996</v>
+        <v>-74.046999999999997</v>
       </c>
       <c r="K81">
-        <v>40.851999999999997</v>
+        <v>40.892000000000003</v>
       </c>
       <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81" t="s">
-        <v>642</v>
+        <v>6</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -8851,19 +8852,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E82">
-        <v>345</v>
+        <v>500</v>
       </c>
       <c r="F82">
         <v>1.1000000000000001</v>
@@ -8872,22 +8873,22 @@
         <v>0.9</v>
       </c>
       <c r="H82">
-        <v>1.0219800000000001</v>
+        <v>1.04853</v>
       </c>
       <c r="I82">
-        <v>-5.7327084611005753E-2</v>
+        <v>0.1143539725906685</v>
       </c>
       <c r="J82">
-        <v>-73.775000000000006</v>
+        <v>-75.706000000000003</v>
       </c>
       <c r="K82">
-        <v>40.491</v>
+        <v>40.779000000000003</v>
       </c>
       <c r="L82">
-        <v>3</v>
-      </c>
-      <c r="M82" t="s">
-        <v>643</v>
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -8895,19 +8896,19 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E83">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="F83">
         <v>1.1000000000000001</v>
@@ -8916,22 +8917,22 @@
         <v>0.9</v>
       </c>
       <c r="H83">
-        <v>1.05</v>
+        <v>1.0392600000000001</v>
       </c>
       <c r="I83">
-        <v>0.13208651779093089</v>
+        <v>4.7781878931848758E-2</v>
       </c>
       <c r="J83">
-        <v>-73.783000000000001</v>
+        <v>-75.201999999999998</v>
       </c>
       <c r="K83">
-        <v>40.744999999999997</v>
+        <v>40.136000000000003</v>
       </c>
       <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83" t="s">
-        <v>643</v>
+        <v>6</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -8939,19 +8940,19 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E84">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="F84">
         <v>1.1000000000000001</v>
@@ -8960,19 +8961,19 @@
         <v>0.9</v>
       </c>
       <c r="H84">
-        <v>0.95576000000000005</v>
+        <v>1.0230300000000001</v>
       </c>
       <c r="I84">
-        <v>0.40114996593688068</v>
+        <v>0.15603418045754511</v>
       </c>
       <c r="J84">
-        <v>-82.905000000000001</v>
+        <v>-75.680000000000007</v>
       </c>
       <c r="K84">
-        <v>42.11</v>
+        <v>39.837000000000003</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8983,19 +8984,19 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E85">
-        <v>118.1</v>
+        <v>500</v>
       </c>
       <c r="F85">
         <v>1.1000000000000001</v>
@@ -9004,19 +9005,19 @@
         <v>0.9</v>
       </c>
       <c r="H85">
-        <v>0.96323000000000003</v>
+        <v>1.02</v>
       </c>
       <c r="I85">
-        <v>0.40993246273291623</v>
+        <v>0.2128708275487404</v>
       </c>
       <c r="J85">
-        <v>-83.24</v>
+        <v>-76.078999999999994</v>
       </c>
       <c r="K85">
-        <v>41.975000000000001</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9027,19 +9028,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E86">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="F86">
         <v>1.1000000000000001</v>
@@ -9048,19 +9049,19 @@
         <v>0.9</v>
       </c>
       <c r="H86">
-        <v>0.99128000000000005</v>
+        <v>1.0260400000000001</v>
       </c>
       <c r="I86">
-        <v>0.63614807774240523</v>
+        <v>0.23409228592373951</v>
       </c>
       <c r="J86">
-        <v>-82.442999999999998</v>
+        <v>-76.518000000000001</v>
       </c>
       <c r="K86">
-        <v>42.543999999999997</v>
+        <v>39.960999999999999</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -9071,19 +9072,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="F87">
         <v>1.1000000000000001</v>
@@ -9092,19 +9093,19 @@
         <v>0.9</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>1.0397799999999999</v>
       </c>
       <c r="I87">
-        <v>0.72828051829668194</v>
+        <v>0.34132531516627113</v>
       </c>
       <c r="J87">
-        <v>-82.475999999999999</v>
+        <v>-77.388999999999996</v>
       </c>
       <c r="K87">
-        <v>42.81</v>
+        <v>40.637999999999998</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -9115,19 +9116,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="E88">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="F88">
         <v>1.1000000000000001</v>
@@ -9136,19 +9137,19 @@
         <v>0.9</v>
       </c>
       <c r="H88">
-        <v>1.01813</v>
+        <v>1.02</v>
       </c>
       <c r="I88">
-        <v>0.58733819988113178</v>
+        <v>0.59948569147501229</v>
       </c>
       <c r="J88">
-        <v>-82.61</v>
+        <v>-79.096000000000004</v>
       </c>
       <c r="K88">
-        <v>42.436999999999998</v>
+        <v>40.435000000000002</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -9159,19 +9160,19 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="E89">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F89">
         <v>1.1000000000000001</v>
@@ -9180,19 +9181,19 @@
         <v>0.9</v>
       </c>
       <c r="H89">
-        <v>0.97335000000000005</v>
+        <v>1.03</v>
       </c>
       <c r="I89">
-        <v>0.57345061502301287</v>
+        <v>0.44639239080707771</v>
       </c>
       <c r="J89">
-        <v>-81.917000000000002</v>
+        <v>-78.825999999999993</v>
       </c>
       <c r="K89">
-        <v>42.81</v>
+        <v>41.072000000000003</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9203,19 +9204,19 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E90">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="F90">
         <v>1.1000000000000001</v>
@@ -9224,19 +9225,19 @@
         <v>0.9</v>
       </c>
       <c r="H90">
-        <v>0.95584000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="I90">
-        <v>0.52798653333781265</v>
+        <v>0.61097519394089106</v>
       </c>
       <c r="J90">
-        <v>-82.204999999999998</v>
+        <v>-79.408000000000001</v>
       </c>
       <c r="K90">
-        <v>42.911000000000001</v>
+        <v>40.784999999999997</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9247,19 +9248,19 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E91">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F91">
         <v>1.1000000000000001</v>
@@ -9268,19 +9269,19 @@
         <v>0.9</v>
       </c>
       <c r="H91">
-        <v>0.95411000000000001</v>
+        <v>1.00058</v>
       </c>
       <c r="I91">
-        <v>0.52537901143533305</v>
+        <v>0.34413704059123401</v>
       </c>
       <c r="J91">
-        <v>-82.468000000000004</v>
+        <v>-80.295000000000002</v>
       </c>
       <c r="K91">
-        <v>43.255000000000003</v>
+        <v>41.664999999999999</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9291,19 +9292,19 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E92">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F92">
         <v>1.1000000000000001</v>
@@ -9315,16 +9316,16 @@
         <v>1.04</v>
       </c>
       <c r="I92">
-        <v>0.19571075034313221</v>
+        <v>0.3547294438215875</v>
       </c>
       <c r="J92">
-        <v>-79.406000000000006</v>
+        <v>-79.953000000000003</v>
       </c>
       <c r="K92">
-        <v>43.875999999999998</v>
+        <v>42.133000000000003</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9335,19 +9336,19 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E93">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="F93">
         <v>1.1000000000000001</v>
@@ -9356,19 +9357,19 @@
         <v>0.9</v>
       </c>
       <c r="H93">
-        <v>1.04</v>
+        <v>0.97072999999999998</v>
       </c>
       <c r="I93">
-        <v>0.32606066552832857</v>
+        <v>0.2365392375350355</v>
       </c>
       <c r="J93">
-        <v>-81.094999999999999</v>
+        <v>-76.266000000000005</v>
       </c>
       <c r="K93">
-        <v>46.481999999999999</v>
+        <v>41.715000000000003</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -9379,19 +9380,19 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E94">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F94">
         <v>1.1000000000000001</v>
@@ -9400,19 +9401,19 @@
         <v>0.9</v>
       </c>
       <c r="H94">
-        <v>0.96211000000000002</v>
+        <v>1.01</v>
       </c>
       <c r="I94">
-        <v>0.13169207337998021</v>
+        <v>0.51274282765089418</v>
       </c>
       <c r="J94">
-        <v>-79.638999999999996</v>
+        <v>-82.212000000000003</v>
       </c>
       <c r="K94">
-        <v>44.732999999999997</v>
+        <v>38.94</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9423,19 +9424,19 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E95">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F95">
         <v>1.1000000000000001</v>
@@ -9444,19 +9445,19 @@
         <v>0.9</v>
       </c>
       <c r="H95">
-        <v>0.95948</v>
+        <v>1.04132</v>
       </c>
       <c r="I95">
-        <v>0.1357726531711429</v>
+        <v>0.52726745768599093</v>
       </c>
       <c r="J95">
-        <v>-80.100999999999999</v>
+        <v>-79.283000000000001</v>
       </c>
       <c r="K95">
-        <v>44</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9467,19 +9468,19 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E96">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F96">
         <v>1.1000000000000001</v>
@@ -9488,22 +9489,22 @@
         <v>0.9</v>
       </c>
       <c r="H96">
-        <v>0.97263999999999995</v>
+        <v>1.0407999999999999</v>
       </c>
       <c r="I96">
-        <v>0.25540799207834619</v>
+        <v>0.47005381947636482</v>
       </c>
       <c r="J96">
-        <v>-78.102000000000004</v>
+        <v>-78.352000000000004</v>
       </c>
       <c r="K96">
-        <v>46.087000000000003</v>
+        <v>43.125</v>
       </c>
       <c r="L96">
-        <v>4</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M96" t="s">
+        <v>639</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9511,19 +9512,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E97">
-        <v>13.8</v>
+        <v>230</v>
       </c>
       <c r="F97">
         <v>1.1000000000000001</v>
@@ -9532,22 +9533,22 @@
         <v>0.9</v>
       </c>
       <c r="H97">
-        <v>1.0232300000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I97">
-        <v>0.26530051827864998</v>
+        <v>0.45744207030145378</v>
       </c>
       <c r="J97">
-        <v>-79.522999999999996</v>
+        <v>-78.590999999999994</v>
       </c>
       <c r="K97">
-        <v>46.194000000000003</v>
+        <v>42.996000000000002</v>
       </c>
       <c r="L97">
-        <v>4</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M97" t="s">
+        <v>639</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9555,19 +9556,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E98">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F98">
         <v>1.1000000000000001</v>
@@ -9576,22 +9577,22 @@
         <v>0.9</v>
       </c>
       <c r="H98">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I98">
-        <v>0.2451873439786674</v>
+        <v>0.46948484214021469</v>
       </c>
       <c r="J98">
-        <v>-81.349000000000004</v>
+        <v>-78.742999999999995</v>
       </c>
       <c r="K98">
-        <v>46.198999999999998</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M98" t="s">
+        <v>639</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -9599,19 +9600,19 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E99">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F99">
         <v>1.1000000000000001</v>
@@ -9620,22 +9621,22 @@
         <v>0.9</v>
       </c>
       <c r="H99">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I99">
-        <v>0.55801841377687911</v>
+        <v>0.44895627947825728</v>
       </c>
       <c r="J99">
-        <v>-75.953000000000003</v>
+        <v>-79.125</v>
       </c>
       <c r="K99">
-        <v>44.637</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>639</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -9643,19 +9644,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F100">
         <v>1.1000000000000001</v>
@@ -9664,22 +9665,22 @@
         <v>0.9</v>
       </c>
       <c r="H100">
-        <v>1.0384199999999999</v>
+        <v>1.0101</v>
       </c>
       <c r="I100">
-        <v>0.54668773627293188</v>
+        <v>0.42914679246812182</v>
       </c>
       <c r="J100">
-        <v>-75.372</v>
+        <v>-79.132999999999996</v>
       </c>
       <c r="K100">
-        <v>44.975999999999999</v>
+        <v>42.713999999999999</v>
       </c>
       <c r="L100">
-        <v>4</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M100" t="s">
+        <v>639</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -9687,19 +9688,19 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E101">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F101">
         <v>1.1000000000000001</v>
@@ -9708,22 +9709,22 @@
         <v>0.9</v>
       </c>
       <c r="H101">
-        <v>1.0324800000000001</v>
+        <v>0.99668999999999996</v>
       </c>
       <c r="I101">
-        <v>0.45933749786911959</v>
+        <v>0.38721351185970598</v>
       </c>
       <c r="J101">
-        <v>-74.852999999999994</v>
+        <v>-78.796999999999997</v>
       </c>
       <c r="K101">
-        <v>45.066000000000003</v>
+        <v>42.561</v>
       </c>
       <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M101" t="s">
+        <v>639</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -9731,19 +9732,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E102">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F102">
         <v>1.1000000000000001</v>
@@ -9752,22 +9753,22 @@
         <v>0.9</v>
       </c>
       <c r="H102">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I102">
-        <v>0.42495974759258742</v>
+        <v>0.52740533869689854</v>
       </c>
       <c r="J102">
-        <v>-79.843000000000004</v>
+        <v>-79.314999999999998</v>
       </c>
       <c r="K102">
-        <v>42.917000000000002</v>
+        <v>42.33</v>
       </c>
       <c r="L102">
-        <v>4</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>639</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -9775,19 +9776,19 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E103">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F103">
         <v>1.1000000000000001</v>
@@ -9796,22 +9797,22 @@
         <v>0.9</v>
       </c>
       <c r="H103">
-        <v>1.0455000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I103">
-        <v>0.44548831025454461</v>
+        <v>0.46647414918052449</v>
       </c>
       <c r="J103">
-        <v>-79.349000000000004</v>
+        <v>-78.828000000000003</v>
       </c>
       <c r="K103">
-        <v>43.265999999999998</v>
+        <v>42.234000000000002</v>
       </c>
       <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M103" t="s">
+        <v>639</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -9819,19 +9820,19 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E104">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F104">
         <v>1.1000000000000001</v>
@@ -9840,22 +9841,22 @@
         <v>0.9</v>
       </c>
       <c r="H104">
-        <v>1.0462899999999999</v>
+        <v>1.04193</v>
       </c>
       <c r="I104">
-        <v>0.44185104409338838</v>
+        <v>0.33882076768965919</v>
       </c>
       <c r="J104">
-        <v>-79.316999999999993</v>
+        <v>-77.481999999999999</v>
       </c>
       <c r="K104">
-        <v>43.069000000000003</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M104" t="s">
+        <v>638</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -9863,19 +9864,19 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E105">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F105">
         <v>1.1000000000000001</v>
@@ -9884,22 +9885,22 @@
         <v>0.9</v>
       </c>
       <c r="H105">
-        <v>0.99699000000000004</v>
+        <v>1.03</v>
       </c>
       <c r="I105">
-        <v>0.22992967565773301</v>
+        <v>0.314251767809335</v>
       </c>
       <c r="J105">
-        <v>-80.019000000000005</v>
+        <v>-77.777000000000001</v>
       </c>
       <c r="K105">
-        <v>43.148000000000003</v>
+        <v>42.889000000000003</v>
       </c>
       <c r="L105">
-        <v>4</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M105" t="s">
+        <v>638</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -9907,19 +9908,19 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E106">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F106">
         <v>1.1000000000000001</v>
@@ -9928,22 +9929,22 @@
         <v>0.9</v>
       </c>
       <c r="H106">
-        <v>0.97457000000000005</v>
+        <v>1.0162800000000001</v>
       </c>
       <c r="I106">
-        <v>0.4210170488123321</v>
+        <v>0.41823848464315722</v>
       </c>
       <c r="J106">
-        <v>-81.486000000000004</v>
+        <v>-78.254999999999995</v>
       </c>
       <c r="K106">
-        <v>42.731000000000002</v>
+        <v>42.707999999999998</v>
       </c>
       <c r="L106">
-        <v>4</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M106" t="s">
+        <v>638</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -9951,19 +9952,19 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E107">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F107">
         <v>1.1000000000000001</v>
@@ -9972,22 +9973,22 @@
         <v>0.9</v>
       </c>
       <c r="H107">
-        <v>0.99289000000000005</v>
+        <v>1.05</v>
       </c>
       <c r="I107">
-        <v>0.25457197936664089</v>
+        <v>0.23063478867553869</v>
       </c>
       <c r="J107">
-        <v>-80.921000000000006</v>
+        <v>-76.332999999999998</v>
       </c>
       <c r="K107">
-        <v>43.137</v>
+        <v>43.305999999999997</v>
       </c>
       <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M107" t="s">
+        <v>637</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -9995,19 +9996,19 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E108">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F108">
         <v>1.1000000000000001</v>
@@ -10016,22 +10017,22 @@
         <v>0.9</v>
       </c>
       <c r="H108">
-        <v>1.0061599999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I108">
-        <v>0.27808680037876049</v>
+        <v>0.14884691459783239</v>
       </c>
       <c r="J108">
-        <v>-80.793000000000006</v>
+        <v>-76.260999999999996</v>
       </c>
       <c r="K108">
-        <v>42.99</v>
+        <v>42.939</v>
       </c>
       <c r="L108">
-        <v>4</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M108" t="s">
+        <v>637</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -10039,19 +10040,19 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E109">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F109">
         <v>1.1000000000000001</v>
@@ -10060,22 +10061,22 @@
         <v>0.9</v>
       </c>
       <c r="H109">
-        <v>1.0003299999999999</v>
+        <v>1.0054799999999999</v>
       </c>
       <c r="I109">
-        <v>0.24287129206127089</v>
+        <v>0.30799301711168342</v>
       </c>
       <c r="J109">
-        <v>-79.781000000000006</v>
+        <v>-77.823999999999998</v>
       </c>
       <c r="K109">
-        <v>43.706000000000003</v>
+        <v>42.42</v>
       </c>
       <c r="L109">
-        <v>4</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M109" t="s">
+        <v>637</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -10083,19 +10084,19 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E110">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F110">
         <v>1.1000000000000001</v>
@@ -10104,22 +10105,22 @@
         <v>0.9</v>
       </c>
       <c r="H110">
-        <v>1.0002899999999999</v>
+        <v>1.00715</v>
       </c>
       <c r="I110">
-        <v>0.24244368639453229</v>
+        <v>0.25390351826312713</v>
       </c>
       <c r="J110">
-        <v>-79.94</v>
+        <v>-77.591999999999999</v>
       </c>
       <c r="K110">
-        <v>43.34</v>
+        <v>42.408999999999999</v>
       </c>
       <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>637</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10127,19 +10128,19 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E111">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F111">
         <v>1.1000000000000001</v>
@@ -10148,22 +10149,22 @@
         <v>0.9</v>
       </c>
       <c r="H111">
-        <v>1.00281</v>
+        <v>1.04</v>
       </c>
       <c r="I111">
-        <v>0.21711721361884259</v>
+        <v>0.27499058628572259</v>
       </c>
       <c r="J111">
-        <v>-79.644000000000005</v>
+        <v>-76.977999999999994</v>
       </c>
       <c r="K111">
-        <v>43.103000000000002</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M111" t="s">
+        <v>637</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -10171,19 +10172,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E112">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F112">
         <v>1.1000000000000001</v>
@@ -10192,22 +10193,22 @@
         <v>0.9</v>
       </c>
       <c r="H112">
-        <v>0.96194000000000002</v>
+        <v>1.0197499999999999</v>
       </c>
       <c r="I112">
-        <v>0.17520138630294679</v>
+        <v>0.36431304674428838</v>
       </c>
       <c r="J112">
-        <v>-80.754000000000005</v>
+        <v>-76.203000000000003</v>
       </c>
       <c r="K112">
-        <v>43.52</v>
+        <v>41.862000000000002</v>
       </c>
       <c r="L112">
-        <v>4</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M112" t="s">
+        <v>637</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -10215,19 +10216,19 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E113">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F113">
         <v>1.1000000000000001</v>
@@ -10236,22 +10237,22 @@
         <v>0.9</v>
       </c>
       <c r="H113">
-        <v>0.97541</v>
+        <v>1.00265</v>
       </c>
       <c r="I113">
-        <v>0.51671519702843316</v>
+        <v>0.29114360851293009</v>
       </c>
       <c r="J113">
-        <v>-81.564999999999998</v>
+        <v>-77.040999999999997</v>
       </c>
       <c r="K113">
-        <v>42.206000000000003</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="L113">
-        <v>4</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M113" t="s">
+        <v>637</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -10259,19 +10260,19 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E114">
-        <v>118.1</v>
+        <v>115</v>
       </c>
       <c r="F114">
         <v>1.1000000000000001</v>
@@ -10280,22 +10281,22 @@
         <v>0.9</v>
       </c>
       <c r="H114">
-        <v>0.95230000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="I114">
-        <v>0.39177929318292309</v>
+        <v>0.2224107972401414</v>
       </c>
       <c r="J114">
-        <v>-82.123000000000005</v>
+        <v>-76.713999999999999</v>
       </c>
       <c r="K114">
-        <v>42.003</v>
+        <v>42.15</v>
       </c>
       <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M114" t="s">
+        <v>637</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -10303,19 +10304,19 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E115">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F115">
         <v>1.1000000000000001</v>
@@ -10324,22 +10325,22 @@
         <v>0.9</v>
       </c>
       <c r="H115">
-        <v>0.95972000000000002</v>
+        <v>0.99894000000000005</v>
       </c>
       <c r="I115">
-        <v>0.53475492017704662</v>
+        <v>0.2367748569840547</v>
       </c>
       <c r="J115">
-        <v>-82.763000000000005</v>
+        <v>-75.988</v>
       </c>
       <c r="K115">
-        <v>42.911000000000001</v>
+        <v>42.014000000000003</v>
       </c>
       <c r="L115">
-        <v>5</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>637</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -10347,19 +10348,19 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B116">
+        <v>71</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116">
         <v>115</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>101</v>
-      </c>
-      <c r="E116">
-        <v>500</v>
       </c>
       <c r="F116">
         <v>1.1000000000000001</v>
@@ -10368,22 +10369,22 @@
         <v>0.9</v>
       </c>
       <c r="H116">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0.58377423754855939</v>
+        <v>0.1939793837251538</v>
       </c>
       <c r="J116">
-        <v>-82.77</v>
+        <v>-75.789000000000001</v>
       </c>
       <c r="K116">
-        <v>42.628999999999998</v>
+        <v>42.33</v>
       </c>
       <c r="L116">
-        <v>5</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M116" t="s">
+        <v>637</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -10391,19 +10392,19 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
+        <v>71</v>
+      </c>
+      <c r="B117">
+        <v>72</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117">
         <v>115</v>
-      </c>
-      <c r="B117">
-        <v>116</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>102</v>
-      </c>
-      <c r="E117">
-        <v>220</v>
       </c>
       <c r="F117">
         <v>1.1000000000000001</v>
@@ -10412,22 +10413,22 @@
         <v>0.9</v>
       </c>
       <c r="H117">
-        <v>0.99338000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="I117">
-        <v>0.46862090416047752</v>
+        <v>0.17659764970454231</v>
       </c>
       <c r="J117">
-        <v>-82.921000000000006</v>
+        <v>-76.093000000000004</v>
       </c>
       <c r="K117">
-        <v>42.323999999999998</v>
+        <v>42.634999999999998</v>
       </c>
       <c r="L117">
-        <v>5</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>637</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -10435,16 +10436,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="E118">
         <v>230</v>
@@ -10456,22 +10457,22 @@
         <v>0.9</v>
       </c>
       <c r="H118">
-        <v>1.0050600000000001</v>
+        <v>1.05</v>
       </c>
       <c r="I118">
-        <v>0.53869761895730184</v>
+        <v>0.26202104461415271</v>
       </c>
       <c r="J118">
-        <v>-83.488</v>
+        <v>-74.820999999999998</v>
       </c>
       <c r="K118">
-        <v>42.573</v>
+        <v>44.845999999999997</v>
       </c>
       <c r="L118">
-        <v>5</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>486</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -10479,16 +10480,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E119">
         <v>115</v>
@@ -10500,22 +10501,22 @@
         <v>0.9</v>
       </c>
       <c r="H119">
-        <v>0.99856999999999996</v>
+        <v>0.96523000000000003</v>
       </c>
       <c r="I119">
-        <v>0.55482446124572948</v>
+        <v>-1.948136511076071E-2</v>
       </c>
       <c r="J119">
-        <v>-83.495000000000005</v>
+        <v>-74.134</v>
       </c>
       <c r="K119">
-        <v>42.127000000000002</v>
+        <v>44.698999999999998</v>
       </c>
       <c r="L119">
-        <v>5</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M119" t="s">
+        <v>486</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -10523,19 +10524,19 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="E120">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F120">
         <v>1.1000000000000001</v>
@@ -10544,22 +10545,22 @@
         <v>0.9</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>1.0421</v>
       </c>
       <c r="I120">
-        <v>0.52780152843710126</v>
+        <v>0.1217402059851085</v>
       </c>
       <c r="J120">
-        <v>-83.632999999999996</v>
+        <v>-74.88</v>
       </c>
       <c r="K120">
-        <v>43.109000000000002</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="L120">
-        <v>5</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M120" t="s">
+        <v>635</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -10567,19 +10568,19 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E121">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="F121">
         <v>1.1000000000000001</v>
@@ -10588,22 +10589,22 @@
         <v>0.9</v>
       </c>
       <c r="H121">
-        <v>1.02</v>
+        <v>1.04908</v>
       </c>
       <c r="I121">
-        <v>0.46547233018987971</v>
+        <v>0.14561281949388691</v>
       </c>
       <c r="J121">
-        <v>-85.754999999999995</v>
+        <v>-75.239999999999995</v>
       </c>
       <c r="K121">
-        <v>43.198999999999998</v>
+        <v>42.893999999999998</v>
       </c>
       <c r="L121">
-        <v>5</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M121" t="s">
+        <v>635</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -10611,19 +10612,19 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E122">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F122">
         <v>1.1000000000000001</v>
@@ -10632,22 +10633,22 @@
         <v>0.9</v>
       </c>
       <c r="H122">
-        <v>1.04</v>
+        <v>1.04792</v>
       </c>
       <c r="I122">
-        <v>0.57408416954148689</v>
+        <v>0.1146611505390195</v>
       </c>
       <c r="J122">
-        <v>-83.144999999999996</v>
+        <v>-75.135999999999996</v>
       </c>
       <c r="K122">
-        <v>42.494</v>
+        <v>43.012999999999998</v>
       </c>
       <c r="L122">
-        <v>5</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M122" t="s">
+        <v>635</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -10655,19 +10656,19 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E123">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F123">
         <v>1.1000000000000001</v>
@@ -10676,22 +10677,22 @@
         <v>0.9</v>
       </c>
       <c r="H123">
-        <v>1.05</v>
+        <v>1.04349</v>
       </c>
       <c r="I123">
-        <v>0.56411135819559122</v>
+        <v>6.889163623472018E-2</v>
       </c>
       <c r="J123">
-        <v>-83.200999999999993</v>
+        <v>-75.239999999999995</v>
       </c>
       <c r="K123">
-        <v>42.319000000000003</v>
+        <v>43.131</v>
       </c>
       <c r="L123">
-        <v>5</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>635</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -10699,19 +10700,19 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="E124">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="F124">
         <v>1.1000000000000001</v>
@@ -10720,22 +10721,22 @@
         <v>0.9</v>
       </c>
       <c r="H124">
-        <v>1.01</v>
+        <v>1.0478099999999999</v>
       </c>
       <c r="I124">
-        <v>0.65645847424786319</v>
+        <v>0.1079486142358493</v>
       </c>
       <c r="J124">
-        <v>-83.501999999999995</v>
+        <v>-75.051000000000002</v>
       </c>
       <c r="K124">
-        <v>41.619</v>
+        <v>44.427999999999997</v>
       </c>
       <c r="L124">
-        <v>5</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M124" t="s">
+        <v>635</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -10743,16 +10744,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="E125">
         <v>230</v>
@@ -10764,22 +10765,22 @@
         <v>0.9</v>
       </c>
       <c r="H125">
-        <v>1.04471</v>
+        <v>1.03</v>
       </c>
       <c r="I125">
-        <v>4.161039469679681E-2</v>
+        <v>0.20384223932817369</v>
       </c>
       <c r="J125">
-        <v>-74.709000000000003</v>
+        <v>-75.210999999999999</v>
       </c>
       <c r="K125">
-        <v>40.627000000000002</v>
+        <v>44.654000000000003</v>
       </c>
       <c r="L125">
-        <v>6</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M125" t="s">
+        <v>635</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -10787,19 +10788,19 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E126">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="F126">
         <v>1.1000000000000001</v>
@@ -10808,22 +10809,22 @@
         <v>0.9</v>
       </c>
       <c r="H126">
-        <v>1.02196</v>
+        <v>1.0194799999999999</v>
       </c>
       <c r="I126">
-        <v>-5.9620447248126297E-2</v>
+        <v>0.25020342024889908</v>
       </c>
       <c r="J126">
-        <v>-74.301000000000002</v>
+        <v>-75.397000000000006</v>
       </c>
       <c r="K126">
-        <v>40.485999999999997</v>
+        <v>42.009</v>
       </c>
       <c r="L126">
-        <v>6</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M126" t="s">
+        <v>635</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -10831,19 +10832,19 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E127">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="F127">
         <v>1.1000000000000001</v>
@@ -10852,22 +10853,22 @@
         <v>0.9</v>
       </c>
       <c r="H127">
-        <v>1.02261</v>
+        <v>1.04419</v>
       </c>
       <c r="I127">
-        <v>-9.41517864988341E-2</v>
+        <v>8.0393356005362807E-2</v>
       </c>
       <c r="J127">
-        <v>-74.046999999999997</v>
+        <v>-73.923000000000002</v>
       </c>
       <c r="K127">
-        <v>40.892000000000003</v>
+        <v>42.494</v>
       </c>
       <c r="L127">
-        <v>6</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M127" t="s">
+        <v>634</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -10875,19 +10876,19 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E128">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="F128">
         <v>1.1000000000000001</v>
@@ -10896,22 +10897,22 @@
         <v>0.9</v>
       </c>
       <c r="H128">
-        <v>1.04853</v>
+        <v>1.0307200000000001</v>
       </c>
       <c r="I128">
-        <v>0.1143539725906685</v>
+        <v>1.0056587149991331E-2</v>
       </c>
       <c r="J128">
-        <v>-75.706000000000003</v>
+        <v>-74.066000000000003</v>
       </c>
       <c r="K128">
-        <v>40.779000000000003</v>
+        <v>42.646000000000001</v>
       </c>
       <c r="L128">
-        <v>6</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M128" t="s">
+        <v>634</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -10919,19 +10920,19 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="E129">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="F129">
         <v>1.1000000000000001</v>
@@ -10940,22 +10941,22 @@
         <v>0.9</v>
       </c>
       <c r="H129">
-        <v>1.0392600000000001</v>
+        <v>1.02634</v>
       </c>
       <c r="I129">
-        <v>4.7781878931848758E-2</v>
+        <v>-5.8833303755476851E-2</v>
       </c>
       <c r="J129">
-        <v>-75.201999999999998</v>
+        <v>-73.78</v>
       </c>
       <c r="K129">
-        <v>40.136000000000003</v>
+        <v>43.085999999999999</v>
       </c>
       <c r="L129">
-        <v>6</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M129" t="s">
+        <v>634</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -10963,19 +10964,19 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="E130">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="F130">
         <v>1.1000000000000001</v>
@@ -10984,22 +10985,22 @@
         <v>0.9</v>
       </c>
       <c r="H130">
-        <v>1.0230300000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I130">
-        <v>0.15603418045754511</v>
+        <v>-4.4793875252434473E-2</v>
       </c>
       <c r="J130">
-        <v>-75.680000000000007</v>
+        <v>-73.628</v>
       </c>
       <c r="K130">
-        <v>39.837000000000003</v>
+        <v>42.701999999999998</v>
       </c>
       <c r="L130">
-        <v>6</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M130" t="s">
+        <v>634</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -11007,19 +11008,19 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E131">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="F131">
         <v>1.1000000000000001</v>
@@ -11028,22 +11029,22 @@
         <v>0.9</v>
       </c>
       <c r="H131">
-        <v>1.02</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="I131">
-        <v>0.2128708275487404</v>
+        <v>5.7140334381042351E-2</v>
       </c>
       <c r="J131">
-        <v>-76.078999999999994</v>
+        <v>-74.001000000000005</v>
       </c>
       <c r="K131">
-        <v>39.909999999999997</v>
+        <v>42.042000000000002</v>
       </c>
       <c r="L131">
-        <v>6</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M131" t="s">
+        <v>636</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -11051,19 +11052,19 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="E132">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="F132">
         <v>1.1000000000000001</v>
@@ -11072,22 +11073,22 @@
         <v>0.9</v>
       </c>
       <c r="H132">
-        <v>1.0260400000000001</v>
+        <v>1.0329200000000001</v>
       </c>
       <c r="I132">
-        <v>0.23409228592373951</v>
+        <v>2.8581511830659139E-2</v>
       </c>
       <c r="J132">
-        <v>-76.518000000000001</v>
+        <v>-73.641000000000005</v>
       </c>
       <c r="K132">
-        <v>39.960999999999999</v>
+        <v>41.58</v>
       </c>
       <c r="L132">
-        <v>6</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M132" t="s">
+        <v>636</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -11095,19 +11096,19 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E133">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="F133">
         <v>1.1000000000000001</v>
@@ -11116,22 +11117,22 @@
         <v>0.9</v>
       </c>
       <c r="H133">
-        <v>1.0397799999999999</v>
+        <v>1.0494399999999999</v>
       </c>
       <c r="I133">
-        <v>0.34132531516627113</v>
+        <v>2.2045253781940371E-2</v>
       </c>
       <c r="J133">
-        <v>-77.388999999999996</v>
+        <v>-74.861000000000004</v>
       </c>
       <c r="K133">
-        <v>40.637999999999998</v>
+        <v>41.078000000000003</v>
       </c>
       <c r="L133">
-        <v>6</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M133" t="s">
+        <v>636</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -11139,19 +11140,19 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="E134">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="F134">
         <v>1.1000000000000001</v>
@@ -11160,22 +11161,22 @@
         <v>0.9</v>
       </c>
       <c r="H134">
-        <v>1.02</v>
+        <v>1.0463899999999999</v>
       </c>
       <c r="I134">
-        <v>0.59948569147501229</v>
+        <v>1.391725545540278E-2</v>
       </c>
       <c r="J134">
-        <v>-79.096000000000004</v>
+        <v>-74.311000000000007</v>
       </c>
       <c r="K134">
-        <v>40.435000000000002</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="L134">
-        <v>6</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M134" t="s">
+        <v>636</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -11183,19 +11184,19 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B135">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="E135">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="F135">
         <v>1.1000000000000001</v>
@@ -11204,22 +11205,22 @@
         <v>0.9</v>
       </c>
       <c r="H135">
-        <v>1.03</v>
+        <v>1.03539</v>
       </c>
       <c r="I135">
-        <v>0.44639239080707771</v>
+        <v>9.5260070573850494E-3</v>
       </c>
       <c r="J135">
-        <v>-78.825999999999993</v>
+        <v>-74.12</v>
       </c>
       <c r="K135">
-        <v>41.072000000000003</v>
+        <v>41.36</v>
       </c>
       <c r="L135">
-        <v>6</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M135" t="s">
+        <v>636</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -11227,19 +11228,19 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E136">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="F136">
         <v>1.1000000000000001</v>
@@ -11248,22 +11249,22 @@
         <v>0.9</v>
       </c>
       <c r="H136">
-        <v>1.02</v>
+        <v>1.02708</v>
       </c>
       <c r="I136">
-        <v>0.61097519394089106</v>
+        <v>5.1993358416911077E-3</v>
       </c>
       <c r="J136">
-        <v>-79.408000000000001</v>
+        <v>-73.769000000000005</v>
       </c>
       <c r="K136">
-        <v>40.784999999999997</v>
+        <v>41.304000000000002</v>
       </c>
       <c r="L136">
-        <v>6</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M136" t="s">
+        <v>640</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -11271,16 +11272,16 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E137">
         <v>345</v>
@@ -11292,22 +11293,22 @@
         <v>0.9</v>
       </c>
       <c r="H137">
-        <v>1.00058</v>
+        <v>1.02</v>
       </c>
       <c r="I137">
-        <v>0.34413704059123401</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>-80.295000000000002</v>
+        <v>-73.424000000000007</v>
       </c>
       <c r="K137">
-        <v>41.664999999999999</v>
+        <v>40.773000000000003</v>
       </c>
       <c r="L137">
-        <v>6</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M137" t="s">
+        <v>641</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -11315,19 +11316,19 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E138">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="F138">
         <v>1.1000000000000001</v>
@@ -11336,22 +11337,22 @@
         <v>0.9</v>
       </c>
       <c r="H138">
-        <v>1.04</v>
+        <v>1.0219800000000001</v>
       </c>
       <c r="I138">
-        <v>0.3547294438215875</v>
+        <v>-5.7327084611005753E-2</v>
       </c>
       <c r="J138">
-        <v>-79.953000000000003</v>
+        <v>-73.775000000000006</v>
       </c>
       <c r="K138">
-        <v>42.133000000000003</v>
+        <v>40.491</v>
       </c>
       <c r="L138">
-        <v>6</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M138" t="s">
+        <v>643</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -11359,19 +11360,19 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E139">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="F139">
         <v>1.1000000000000001</v>
@@ -11380,22 +11381,22 @@
         <v>0.9</v>
       </c>
       <c r="H139">
-        <v>0.97072999999999998</v>
+        <v>1.05</v>
       </c>
       <c r="I139">
-        <v>0.2365392375350355</v>
+        <v>0.13208651779093089</v>
       </c>
       <c r="J139">
-        <v>-76.266000000000005</v>
+        <v>-73.783000000000001</v>
       </c>
       <c r="K139">
-        <v>41.715000000000003</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="L139">
-        <v>6</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M139" t="s">
+        <v>643</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -11403,19 +11404,19 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E140">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="F140">
         <v>1.1000000000000001</v>
@@ -11424,22 +11425,22 @@
         <v>0.9</v>
       </c>
       <c r="H140">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="I140">
-        <v>0.51274282765089418</v>
+        <v>0.14261957982671661</v>
       </c>
       <c r="J140">
-        <v>-82.212000000000003</v>
+        <v>-73.263999999999996</v>
       </c>
       <c r="K140">
-        <v>38.94</v>
+        <v>40.378999999999998</v>
       </c>
       <c r="L140">
-        <v>6</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M140" t="s">
+        <v>642</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -11447,19 +11448,19 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="E141">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="F141">
         <v>1.1000000000000001</v>
@@ -11468,29 +11469,33 @@
         <v>0.9</v>
       </c>
       <c r="H141">
-        <v>1.04132</v>
+        <v>1.0232000000000001</v>
       </c>
       <c r="I141">
-        <v>0.52726745768599093</v>
+        <v>1.1011282250832231E-2</v>
       </c>
       <c r="J141">
-        <v>-79.283000000000001</v>
+        <v>-73.144999999999996</v>
       </c>
       <c r="K141">
-        <v>41.951999999999998</v>
+        <v>40.851999999999997</v>
       </c>
       <c r="L141">
-        <v>6</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M141" t="s">
+        <v>642</v>
       </c>
       <c r="N141">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N141" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N141">
+      <sortCondition ref="M1:M141"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/npcc.xlsx
+++ b/Data/npcc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\Baseline-powergrid-model-for-NY\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B27A7-D115-453F-8094-E17235F36BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358B8EF-3613-49EC-8B46-F24512F47C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="3048" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29604" yWindow="1116" windowWidth="23040" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="645">
   <si>
     <t>idx</t>
   </si>
@@ -1965,6 +1965,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -5276,8 +5279,8 @@
   <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M142" sqref="M142"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5367,8 +5370,8 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="M2" t="s">
+        <v>644</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -5411,8 +5414,8 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>644</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -5455,8 +5458,8 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>0</v>
+      <c r="M4" t="s">
+        <v>644</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -5499,8 +5502,8 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>0</v>
+      <c r="M5" t="s">
+        <v>644</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -5543,8 +5546,8 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>644</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -5587,8 +5590,8 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="M7" t="s">
+        <v>644</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -5631,8 +5634,8 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>0</v>
+      <c r="M8" t="s">
+        <v>644</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -5675,8 +5678,8 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="M9" t="s">
+        <v>644</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -5719,8 +5722,8 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
+      <c r="M10" t="s">
+        <v>644</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -5763,8 +5766,8 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
+      <c r="M11" t="s">
+        <v>644</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -5807,8 +5810,8 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>0</v>
+      <c r="M12" t="s">
+        <v>644</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -5851,8 +5854,8 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>0</v>
+      <c r="M13" t="s">
+        <v>644</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -5895,8 +5898,8 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>0</v>
+      <c r="M14" t="s">
+        <v>644</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -5939,8 +5942,8 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>0</v>
+      <c r="M15" t="s">
+        <v>644</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -5983,8 +5986,8 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>0</v>
+      <c r="M16" t="s">
+        <v>644</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -6027,8 +6030,8 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="M17" t="s">
+        <v>644</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -6071,8 +6074,8 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>0</v>
+      <c r="M18" t="s">
+        <v>644</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -6115,8 +6118,8 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>0</v>
+      <c r="M19" t="s">
+        <v>644</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -6159,8 +6162,8 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="M20" t="s">
+        <v>644</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -6203,8 +6206,8 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21">
-        <v>0</v>
+      <c r="M21" t="s">
+        <v>644</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -6247,8 +6250,8 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="M22" t="s">
+        <v>644</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -6291,8 +6294,8 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>0</v>
+      <c r="M23" t="s">
+        <v>644</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -6335,8 +6338,8 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24">
-        <v>0</v>
+      <c r="M24" t="s">
+        <v>644</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -6379,8 +6382,8 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
+      <c r="M25" t="s">
+        <v>644</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -6423,8 +6426,8 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>0</v>
+      <c r="M26" t="s">
+        <v>644</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -6467,8 +6470,8 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27">
-        <v>0</v>
+      <c r="M27" t="s">
+        <v>644</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -6511,8 +6514,8 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
+      <c r="M28" t="s">
+        <v>644</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -6555,8 +6558,8 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29">
-        <v>0</v>
+      <c r="M29" t="s">
+        <v>644</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -6599,8 +6602,8 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>0</v>
+      <c r="M30" t="s">
+        <v>644</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -6643,8 +6646,8 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>0</v>
+      <c r="M31" t="s">
+        <v>644</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -6687,8 +6690,8 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32">
-        <v>0</v>
+      <c r="M32" t="s">
+        <v>644</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -6731,8 +6734,8 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>0</v>
+      <c r="M33" t="s">
+        <v>644</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -6775,8 +6778,8 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="M34">
-        <v>0</v>
+      <c r="M34" t="s">
+        <v>644</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -6819,8 +6822,8 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>0</v>
+      <c r="M35" t="s">
+        <v>644</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -6863,8 +6866,8 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36">
-        <v>0</v>
+      <c r="M36" t="s">
+        <v>644</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -6907,8 +6910,8 @@
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37">
-        <v>0</v>
+      <c r="M37" t="s">
+        <v>644</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -6951,8 +6954,8 @@
       <c r="L38">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>0</v>
+      <c r="M38" t="s">
+        <v>644</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -6995,8 +6998,8 @@
       <c r="L39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
+      <c r="M39" t="s">
+        <v>644</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -7039,8 +7042,8 @@
       <c r="L40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>0</v>
+      <c r="M40" t="s">
+        <v>644</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -7083,8 +7086,8 @@
       <c r="L41">
         <v>4</v>
       </c>
-      <c r="M41">
-        <v>0</v>
+      <c r="M41" t="s">
+        <v>644</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -7127,8 +7130,8 @@
       <c r="L42">
         <v>4</v>
       </c>
-      <c r="M42">
-        <v>0</v>
+      <c r="M42" t="s">
+        <v>644</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -7171,8 +7174,8 @@
       <c r="L43">
         <v>4</v>
       </c>
-      <c r="M43">
-        <v>0</v>
+      <c r="M43" t="s">
+        <v>644</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -7215,8 +7218,8 @@
       <c r="L44">
         <v>4</v>
       </c>
-      <c r="M44">
-        <v>0</v>
+      <c r="M44" t="s">
+        <v>644</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -7259,8 +7262,8 @@
       <c r="L45">
         <v>4</v>
       </c>
-      <c r="M45">
-        <v>0</v>
+      <c r="M45" t="s">
+        <v>644</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -7303,8 +7306,8 @@
       <c r="L46">
         <v>4</v>
       </c>
-      <c r="M46">
-        <v>0</v>
+      <c r="M46" t="s">
+        <v>644</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -7347,8 +7350,8 @@
       <c r="L47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>0</v>
+      <c r="M47" t="s">
+        <v>644</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -7391,8 +7394,8 @@
       <c r="L48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>0</v>
+      <c r="M48" t="s">
+        <v>644</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -7435,8 +7438,8 @@
       <c r="L49">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>0</v>
+      <c r="M49" t="s">
+        <v>644</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -7479,8 +7482,8 @@
       <c r="L50">
         <v>4</v>
       </c>
-      <c r="M50">
-        <v>0</v>
+      <c r="M50" t="s">
+        <v>644</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -7523,8 +7526,8 @@
       <c r="L51">
         <v>4</v>
       </c>
-      <c r="M51">
-        <v>0</v>
+      <c r="M51" t="s">
+        <v>644</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -7567,8 +7570,8 @@
       <c r="L52">
         <v>4</v>
       </c>
-      <c r="M52">
-        <v>0</v>
+      <c r="M52" t="s">
+        <v>644</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -7611,8 +7614,8 @@
       <c r="L53">
         <v>4</v>
       </c>
-      <c r="M53">
-        <v>0</v>
+      <c r="M53" t="s">
+        <v>644</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -7655,8 +7658,8 @@
       <c r="L54">
         <v>4</v>
       </c>
-      <c r="M54">
-        <v>0</v>
+      <c r="M54" t="s">
+        <v>644</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -7699,8 +7702,8 @@
       <c r="L55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>0</v>
+      <c r="M55" t="s">
+        <v>644</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -7743,8 +7746,8 @@
       <c r="L56">
         <v>4</v>
       </c>
-      <c r="M56">
-        <v>0</v>
+      <c r="M56" t="s">
+        <v>644</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -7787,8 +7790,8 @@
       <c r="L57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>0</v>
+      <c r="M57" t="s">
+        <v>644</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -7831,8 +7834,8 @@
       <c r="L58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>0</v>
+      <c r="M58" t="s">
+        <v>644</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -7875,8 +7878,8 @@
       <c r="L59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>0</v>
+      <c r="M59" t="s">
+        <v>644</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -7919,8 +7922,8 @@
       <c r="L60">
         <v>4</v>
       </c>
-      <c r="M60">
-        <v>0</v>
+      <c r="M60" t="s">
+        <v>644</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -7963,8 +7966,8 @@
       <c r="L61">
         <v>4</v>
       </c>
-      <c r="M61">
-        <v>0</v>
+      <c r="M61" t="s">
+        <v>644</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -8007,8 +8010,8 @@
       <c r="L62">
         <v>4</v>
       </c>
-      <c r="M62">
-        <v>0</v>
+      <c r="M62" t="s">
+        <v>644</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -8051,8 +8054,8 @@
       <c r="L63">
         <v>4</v>
       </c>
-      <c r="M63">
-        <v>0</v>
+      <c r="M63" t="s">
+        <v>644</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -8095,8 +8098,8 @@
       <c r="L64">
         <v>4</v>
       </c>
-      <c r="M64">
-        <v>0</v>
+      <c r="M64" t="s">
+        <v>644</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -8139,8 +8142,8 @@
       <c r="L65">
         <v>4</v>
       </c>
-      <c r="M65">
-        <v>0</v>
+      <c r="M65" t="s">
+        <v>644</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -8183,8 +8186,8 @@
       <c r="L66">
         <v>4</v>
       </c>
-      <c r="M66">
-        <v>0</v>
+      <c r="M66" t="s">
+        <v>644</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -8227,8 +8230,8 @@
       <c r="L67">
         <v>4</v>
       </c>
-      <c r="M67">
-        <v>0</v>
+      <c r="M67" t="s">
+        <v>644</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -8271,8 +8274,8 @@
       <c r="L68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>0</v>
+      <c r="M68" t="s">
+        <v>644</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -8315,8 +8318,8 @@
       <c r="L69">
         <v>5</v>
       </c>
-      <c r="M69">
-        <v>0</v>
+      <c r="M69" t="s">
+        <v>644</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -8359,8 +8362,8 @@
       <c r="L70">
         <v>5</v>
       </c>
-      <c r="M70">
-        <v>0</v>
+      <c r="M70" t="s">
+        <v>644</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -8403,8 +8406,8 @@
       <c r="L71">
         <v>5</v>
       </c>
-      <c r="M71">
-        <v>0</v>
+      <c r="M71" t="s">
+        <v>644</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -8447,8 +8450,8 @@
       <c r="L72">
         <v>5</v>
       </c>
-      <c r="M72">
-        <v>0</v>
+      <c r="M72" t="s">
+        <v>644</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -8491,8 +8494,8 @@
       <c r="L73">
         <v>5</v>
       </c>
-      <c r="M73">
-        <v>0</v>
+      <c r="M73" t="s">
+        <v>644</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8535,8 +8538,8 @@
       <c r="L74">
         <v>5</v>
       </c>
-      <c r="M74">
-        <v>0</v>
+      <c r="M74" t="s">
+        <v>644</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -8579,8 +8582,8 @@
       <c r="L75">
         <v>5</v>
       </c>
-      <c r="M75">
-        <v>0</v>
+      <c r="M75" t="s">
+        <v>644</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -8623,8 +8626,8 @@
       <c r="L76">
         <v>5</v>
       </c>
-      <c r="M76">
-        <v>0</v>
+      <c r="M76" t="s">
+        <v>644</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -8667,8 +8670,8 @@
       <c r="L77">
         <v>5</v>
       </c>
-      <c r="M77">
-        <v>0</v>
+      <c r="M77" t="s">
+        <v>644</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -8711,8 +8714,8 @@
       <c r="L78">
         <v>5</v>
       </c>
-      <c r="M78">
-        <v>0</v>
+      <c r="M78" t="s">
+        <v>644</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -8755,8 +8758,8 @@
       <c r="L79">
         <v>6</v>
       </c>
-      <c r="M79">
-        <v>0</v>
+      <c r="M79" t="s">
+        <v>644</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -8799,8 +8802,8 @@
       <c r="L80">
         <v>6</v>
       </c>
-      <c r="M80">
-        <v>0</v>
+      <c r="M80" t="s">
+        <v>644</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -8843,8 +8846,8 @@
       <c r="L81">
         <v>6</v>
       </c>
-      <c r="M81">
-        <v>0</v>
+      <c r="M81" t="s">
+        <v>644</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -8887,8 +8890,8 @@
       <c r="L82">
         <v>6</v>
       </c>
-      <c r="M82">
-        <v>0</v>
+      <c r="M82" t="s">
+        <v>644</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -8931,8 +8934,8 @@
       <c r="L83">
         <v>6</v>
       </c>
-      <c r="M83">
-        <v>0</v>
+      <c r="M83" t="s">
+        <v>644</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -8975,8 +8978,8 @@
       <c r="L84">
         <v>6</v>
       </c>
-      <c r="M84">
-        <v>0</v>
+      <c r="M84" t="s">
+        <v>644</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -9019,8 +9022,8 @@
       <c r="L85">
         <v>6</v>
       </c>
-      <c r="M85">
-        <v>0</v>
+      <c r="M85" t="s">
+        <v>644</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -9063,8 +9066,8 @@
       <c r="L86">
         <v>6</v>
       </c>
-      <c r="M86">
-        <v>0</v>
+      <c r="M86" t="s">
+        <v>644</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -9107,8 +9110,8 @@
       <c r="L87">
         <v>6</v>
       </c>
-      <c r="M87">
-        <v>0</v>
+      <c r="M87" t="s">
+        <v>644</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -9151,8 +9154,8 @@
       <c r="L88">
         <v>6</v>
       </c>
-      <c r="M88">
-        <v>0</v>
+      <c r="M88" t="s">
+        <v>644</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -9195,8 +9198,8 @@
       <c r="L89">
         <v>6</v>
       </c>
-      <c r="M89">
-        <v>0</v>
+      <c r="M89" t="s">
+        <v>644</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -9239,8 +9242,8 @@
       <c r="L90">
         <v>6</v>
       </c>
-      <c r="M90">
-        <v>0</v>
+      <c r="M90" t="s">
+        <v>644</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -9283,8 +9286,8 @@
       <c r="L91">
         <v>6</v>
       </c>
-      <c r="M91">
-        <v>0</v>
+      <c r="M91" t="s">
+        <v>644</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -9327,8 +9330,8 @@
       <c r="L92">
         <v>6</v>
       </c>
-      <c r="M92">
-        <v>0</v>
+      <c r="M92" t="s">
+        <v>644</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -9371,8 +9374,8 @@
       <c r="L93">
         <v>6</v>
       </c>
-      <c r="M93">
-        <v>0</v>
+      <c r="M93" t="s">
+        <v>644</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -9415,8 +9418,8 @@
       <c r="L94">
         <v>6</v>
       </c>
-      <c r="M94">
-        <v>0</v>
+      <c r="M94" t="s">
+        <v>644</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -9459,8 +9462,8 @@
       <c r="L95">
         <v>6</v>
       </c>
-      <c r="M95">
-        <v>0</v>
+      <c r="M95" t="s">
+        <v>644</v>
       </c>
       <c r="N95">
         <v>1</v>
